--- a/iteration_results_ring.xlsx
+++ b/iteration_results_ring.xlsx
@@ -771,193 +771,193 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039968849005217</v>
+        <v>1.039417152495891</v>
       </c>
       <c r="D2">
-        <v>0.9894955493857441</v>
+        <v>0.9894249368986042</v>
       </c>
       <c r="E2">
-        <v>1.004420840151914</v>
+        <v>1.004351467829645</v>
       </c>
       <c r="F2">
-        <v>0.9881701789829019</v>
+        <v>0.9881960589955012</v>
       </c>
       <c r="G2">
-        <v>1.003118782881551</v>
+        <v>1.003144206944392</v>
       </c>
       <c r="H2">
-        <v>0.9690949777153632</v>
+        <v>0.9693959613764974</v>
       </c>
       <c r="I2">
-        <v>0.9843876801294043</v>
+        <v>0.9846831067531778</v>
       </c>
       <c r="J2">
-        <v>0.9722677817503115</v>
+        <v>0.9725654044000382</v>
       </c>
       <c r="K2">
-        <v>0.9875021147832854</v>
+        <v>0.9877942858268054</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9889051969179634</v>
+        <v>0.9891977830896798</v>
       </c>
       <c r="N2">
-        <v>0.9889051969179634</v>
+        <v>0.9891977830896798</v>
       </c>
       <c r="O2">
-        <v>1.005661692322744</v>
+        <v>1.00531957912838</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.024084000008267</v>
+        <v>1.021266309363501</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S2">
-        <v>15.28644837190011</v>
+        <v>14.20231927329496</v>
       </c>
       <c r="T2">
-        <v>11.34808017827832</v>
+        <v>10.26185739166901</v>
       </c>
       <c r="U2">
-        <v>1.365355098244617</v>
+        <v>0.4300728769649157</v>
       </c>
       <c r="V2">
-        <v>4.217643383263662</v>
+        <v>3.282762079753673</v>
       </c>
       <c r="W2">
-        <v>4.265053995406362</v>
+        <v>1.979663850013762</v>
       </c>
       <c r="X2">
-        <v>7.124881390320668</v>
+        <v>4.839343747346343</v>
       </c>
       <c r="Y2">
-        <v>-2.745912162330843</v>
+        <v>-3.528471648647655</v>
       </c>
       <c r="Z2">
-        <v>0.2257935778960735</v>
+        <v>-0.5585815080001382</v>
       </c>
       <c r="AA2">
-        <v>-1.168049678702274</v>
+        <v>-2.204709215190769</v>
       </c>
       <c r="AB2">
-        <v>1.784599826813576</v>
+        <v>0.746162081901223</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.771759316326575</v>
+        <v>0.7333215714142227</v>
       </c>
       <c r="AE2">
-        <v>1.771759316326575</v>
+        <v>0.7333215714142227</v>
       </c>
       <c r="AF2">
-        <v>12.18783600984923</v>
+        <v>8.150390779692337</v>
       </c>
       <c r="AG2">
-        <v>16.15322900992177</v>
+        <v>10.74184710446182</v>
       </c>
       <c r="AH2">
-        <v>8.367759827746504</v>
+        <v>7.114668637319128</v>
       </c>
       <c r="AI2">
-        <v>8.490846226794364</v>
+        <v>7.731810078086582</v>
       </c>
       <c r="AJ2">
-        <v>47.16895995768225</v>
+        <v>46.19368242750808</v>
       </c>
       <c r="AK2">
-        <v>32.6660935854269</v>
+        <v>33.74928681693613</v>
       </c>
       <c r="AL2">
-        <v>2.038580413890434</v>
+        <v>2.039183566185692</v>
       </c>
       <c r="AM2">
-        <v>30.20231062125147</v>
+        <v>23.51556319399188</v>
       </c>
       <c r="AN2">
-        <v>13.7137556646932</v>
+        <v>11.51841912298987</v>
       </c>
       <c r="AO2">
-        <v>7.432459839117859</v>
+        <v>7.667482740123329</v>
       </c>
       <c r="AP2">
-        <v>45.21588601831732</v>
+        <v>29.65184366083822</v>
       </c>
       <c r="AQ2">
-        <v>24.68469367818355</v>
+        <v>22.66115510793691</v>
       </c>
       <c r="AR2">
-        <v>15.27001625092613</v>
+        <v>12.14129534962201</v>
       </c>
       <c r="AS2">
-        <v>18.23100657470551</v>
+        <v>19.36828500206975</v>
       </c>
       <c r="AT2">
-        <v>9.296333416092175</v>
+        <v>11.61574294901699</v>
       </c>
       <c r="AU2">
-        <v>6.497444741610877</v>
+        <v>6.228502295566557</v>
       </c>
       <c r="AV2">
-        <v>1.547501589127904</v>
+        <v>1.654754983312927</v>
       </c>
       <c r="AW2">
-        <v>0.0007646787898544562</v>
+        <v>0.0007651313459677802</v>
       </c>
       <c r="AX2">
-        <v>1.498804127993921</v>
+        <v>0.8967010777543152</v>
       </c>
       <c r="AY2">
-        <v>0.3846127344390595</v>
+        <v>0.2711416924784373</v>
       </c>
       <c r="AZ2">
-        <v>0.0439030060257477</v>
+        <v>0.05562535888598141</v>
       </c>
       <c r="BA2">
-        <v>2.111307233296543</v>
+        <v>0.9035505033897948</v>
       </c>
       <c r="BB2">
-        <v>0.9798065197786769</v>
+        <v>0.825791069565895</v>
       </c>
       <c r="BC2">
-        <v>1.129551728996759</v>
+        <v>0.6858401616257765</v>
       </c>
       <c r="BD2">
-        <v>1.04525680720478</v>
+        <v>1.17807677624765</v>
       </c>
       <c r="BE2">
-        <v>0.2294807786211237</v>
+        <v>0.4833310414065863</v>
       </c>
       <c r="BF2">
-        <v>72.51183831923326</v>
+        <v>72.60911265245031</v>
       </c>
       <c r="BG2">
-        <v>51.81982046231931</v>
+        <v>51.82351869779878</v>
       </c>
       <c r="BH2">
-        <v>51.88932312267286</v>
+        <v>51.88796418552276</v>
       </c>
       <c r="BI2">
-        <v>52.91068769989396</v>
+        <v>52.89425968375647</v>
       </c>
       <c r="BJ2">
-        <v>52.73802411216928</v>
+        <v>52.72188532046783</v>
       </c>
       <c r="BK2">
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>69.62154604861148</v>
+        <v>45.65667911545447</v>
       </c>
       <c r="BM2">
-        <v>24.18191962307793</v>
+        <v>23.89015928107325</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -968,193 +968,193 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040286923350959</v>
+        <v>1.039753632384501</v>
       </c>
       <c r="D3">
-        <v>0.9905422123229488</v>
+        <v>0.9905787976855916</v>
       </c>
       <c r="E3">
-        <v>1.005310425725019</v>
+        <v>1.005346385468419</v>
       </c>
       <c r="F3">
-        <v>0.9893784069978863</v>
+        <v>0.9894564606654567</v>
       </c>
       <c r="G3">
-        <v>1.004166550475156</v>
+        <v>1.004243265736336</v>
       </c>
       <c r="H3">
-        <v>0.9706231318190448</v>
+        <v>0.9710712267445739</v>
       </c>
       <c r="I3">
-        <v>0.9857403240309877</v>
+        <v>0.9861803805116922</v>
       </c>
       <c r="J3">
-        <v>0.973896613835789</v>
+        <v>0.9743239257264452</v>
       </c>
       <c r="K3">
-        <v>0.9889552858471203</v>
+        <v>0.9893749932829884</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9903604327048282</v>
+        <v>0.9907807364776525</v>
       </c>
       <c r="N3">
-        <v>0.9903604327048282</v>
+        <v>0.9907807364776525</v>
       </c>
       <c r="O3">
-        <v>1.006123424612369</v>
+        <v>1.005803455191224</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.024690121416797</v>
+        <v>1.021829415875258</v>
       </c>
       <c r="R3">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="S3">
-        <v>15.9866797744975</v>
+        <v>14.86965822497828</v>
       </c>
       <c r="T3">
-        <v>12.04951766124868</v>
+        <v>10.93047354931616</v>
       </c>
       <c r="U3">
-        <v>2.202955063292181</v>
+        <v>1.243822576873588</v>
       </c>
       <c r="V3">
-        <v>4.885591026212348</v>
+        <v>3.926263368170697</v>
       </c>
       <c r="W3">
-        <v>5.28960923986035</v>
+        <v>2.972864805522061</v>
       </c>
       <c r="X3">
-        <v>7.978464810526521</v>
+        <v>5.661302569581959</v>
       </c>
       <c r="Y3">
-        <v>-1.922462387450718</v>
+        <v>-2.721157049507897</v>
       </c>
       <c r="Z3">
-        <v>0.8696633738843227</v>
+        <v>0.06843296132779227</v>
       </c>
       <c r="AA3">
-        <v>-0.2276270157872402</v>
+        <v>-1.285970662288954</v>
       </c>
       <c r="AB3">
-        <v>2.546053014084847</v>
+        <v>1.485314918996064</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.533212503597846</v>
+        <v>1.472474408509059</v>
       </c>
       <c r="AE3">
-        <v>2.533212503597846</v>
+        <v>1.472474408509059</v>
       </c>
       <c r="AF3">
-        <v>13.03905972400198</v>
+        <v>8.97263835329308</v>
       </c>
       <c r="AG3">
-        <v>17.0026300083963</v>
+        <v>11.5628471193826</v>
       </c>
       <c r="AH3">
-        <v>9.110184988427708</v>
+        <v>7.8156340894055</v>
       </c>
       <c r="AI3">
-        <v>9.224997662239208</v>
+        <v>8.391313902458858</v>
       </c>
       <c r="AJ3">
-        <v>47.33359496732947</v>
+        <v>46.29962903050506</v>
       </c>
       <c r="AK3">
-        <v>31.47705608362831</v>
+        <v>32.53265794882796</v>
       </c>
       <c r="AL3">
-        <v>2.04158031234592</v>
+        <v>2.042446748321724</v>
       </c>
       <c r="AM3">
-        <v>30.70582347724531</v>
+        <v>23.93867818371383</v>
       </c>
       <c r="AN3">
-        <v>14.752912038855</v>
+        <v>12.50923504539007</v>
       </c>
       <c r="AO3">
-        <v>8.568265933245051</v>
+        <v>6.725170522062589</v>
       </c>
       <c r="AP3">
-        <v>45.23093249146316</v>
+        <v>29.68306420961254</v>
       </c>
       <c r="AQ3">
-        <v>25.06626687221045</v>
+        <v>22.93709719094209</v>
       </c>
       <c r="AR3">
-        <v>17.50270339530031</v>
+        <v>14.26336250644823</v>
       </c>
       <c r="AS3">
-        <v>17.98692873169044</v>
+        <v>19.17786131206717</v>
       </c>
       <c r="AT3">
-        <v>8.982305702827606</v>
+        <v>11.15428817360482</v>
       </c>
       <c r="AU3">
-        <v>6.546326744922283</v>
+        <v>6.260631024747795</v>
       </c>
       <c r="AV3">
-        <v>1.43587272728368</v>
+        <v>1.536726469124176</v>
       </c>
       <c r="AW3">
-        <v>0.0007669309909416072</v>
+        <v>0.0007675820921014454</v>
       </c>
       <c r="AX3">
-        <v>1.551166977860277</v>
+        <v>0.9316401671349581</v>
       </c>
       <c r="AY3">
-        <v>0.4456054045814994</v>
+        <v>0.3200916248367065</v>
       </c>
       <c r="AZ3">
-        <v>0.07295385533638132</v>
+        <v>0.03260768441780848</v>
       </c>
       <c r="BA3">
-        <v>2.111805956822707</v>
+        <v>0.904515555937806</v>
       </c>
       <c r="BB3">
-        <v>1.012425431720558</v>
+        <v>0.848060883876073</v>
       </c>
       <c r="BC3">
-        <v>1.517169079943145</v>
+        <v>0.9822378016377797</v>
       </c>
       <c r="BD3">
-        <v>1.016823548165632</v>
+        <v>1.154424463712672</v>
       </c>
       <c r="BE3">
-        <v>0.2045512397277989</v>
+        <v>0.4375875355338223</v>
       </c>
       <c r="BF3">
-        <v>72.45761480263991</v>
+        <v>72.54929904320539</v>
       </c>
       <c r="BG3">
-        <v>48.99683248173758</v>
+        <v>48.99502286609781</v>
       </c>
       <c r="BH3">
-        <v>49.05446743126761</v>
+        <v>49.0505977500376</v>
       </c>
       <c r="BI3">
-        <v>50.00234308481883</v>
+        <v>49.97926980699557</v>
       </c>
       <c r="BJ3">
-        <v>49.83427414551064</v>
+        <v>49.8124181925341</v>
       </c>
       <c r="BK3">
         <v>0</v>
       </c>
       <c r="BL3">
-        <v>69.64471398393766</v>
+        <v>45.70475122164453</v>
       </c>
       <c r="BM3">
-        <v>24.77330595226881</v>
+        <v>24.07651724263484</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1165,193 +1165,193 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040512481197868</v>
+        <v>1.039998327783751</v>
       </c>
       <c r="D4">
-        <v>0.9912876219845179</v>
+        <v>0.9914208997230409</v>
       </c>
       <c r="E4">
-        <v>1.00593913764026</v>
+        <v>1.006070182113352</v>
       </c>
       <c r="F4">
-        <v>0.9902715226650727</v>
+        <v>0.9903988893850506</v>
       </c>
       <c r="G4">
-        <v>1.00494008776239</v>
+        <v>1.005065315106162</v>
       </c>
       <c r="H4">
-        <v>0.9717220171974825</v>
+        <v>0.9722976837057493</v>
       </c>
       <c r="I4">
-        <v>0.9867092134754373</v>
+        <v>0.9872747761502637</v>
       </c>
       <c r="J4">
-        <v>0.9750837053106338</v>
+        <v>0.9756257511148412</v>
       </c>
       <c r="K4">
-        <v>0.990012097405218</v>
+        <v>0.9905447061875211</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9914187458226643</v>
+        <v>0.9919521113566302</v>
       </c>
       <c r="N4">
-        <v>0.9914187458226643</v>
+        <v>0.9919521113566302</v>
       </c>
       <c r="O4">
-        <v>1.006464307692285</v>
+        <v>1.006165374197721</v>
       </c>
       <c r="P4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.025126997035167</v>
+        <v>1.022238603218142</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>16.54097979552031</v>
+        <v>15.39013212798462</v>
       </c>
       <c r="T4">
-        <v>12.60467250890916</v>
+        <v>11.45187574364923</v>
       </c>
       <c r="U4">
-        <v>2.865249575291869</v>
+        <v>1.881409098947104</v>
       </c>
       <c r="V4">
-        <v>5.414210417536573</v>
+        <v>4.429694869279586</v>
       </c>
       <c r="W4">
-        <v>6.099627602612892</v>
+        <v>3.749811187318604</v>
       </c>
       <c r="X4">
-        <v>8.653743919289957</v>
+        <v>6.303280420126186</v>
       </c>
       <c r="Y4">
-        <v>-1.272084232431172</v>
+        <v>-2.087726031517659</v>
       </c>
       <c r="Z4">
-        <v>1.378948136379555</v>
+        <v>0.5602167932345885</v>
       </c>
       <c r="AA4">
-        <v>0.5152174357274939</v>
+        <v>-0.5658162281916483</v>
       </c>
       <c r="AB4">
-        <v>3.148283543751128</v>
+        <v>2.06436996180339</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>3.135443033264122</v>
+        <v>2.051529451316384</v>
       </c>
       <c r="AE4">
-        <v>3.135443033264122</v>
+        <v>2.051529451316384</v>
       </c>
       <c r="AF4">
-        <v>13.71260125898903</v>
+        <v>9.614832763946206</v>
       </c>
       <c r="AG4">
-        <v>17.67482696283146</v>
+        <v>12.20410919364813</v>
       </c>
       <c r="AH4">
-        <v>9.697452101717843</v>
+        <v>8.360250344032082</v>
       </c>
       <c r="AI4">
-        <v>9.804018425929181</v>
+        <v>8.894594949117764</v>
       </c>
       <c r="AJ4">
-        <v>47.46838083620947</v>
+        <v>46.3760612419408</v>
       </c>
       <c r="AK4">
-        <v>30.54180541470868</v>
+        <v>31.57152944415122</v>
       </c>
       <c r="AL4">
-        <v>2.04376197384462</v>
+        <v>2.044861481193271</v>
       </c>
       <c r="AM4">
-        <v>31.1181619480232</v>
+        <v>24.26447686603052</v>
       </c>
       <c r="AN4">
-        <v>15.57498082417788</v>
+        <v>13.28166470309479</v>
       </c>
       <c r="AO4">
-        <v>10.32414225158636</v>
+        <v>7.22228630421879</v>
       </c>
       <c r="AP4">
-        <v>45.2433190904583</v>
+        <v>29.70857192725893</v>
       </c>
       <c r="AQ4">
-        <v>25.37072408719262</v>
+        <v>23.13636772673006</v>
       </c>
       <c r="AR4">
-        <v>19.28294054981312</v>
+        <v>15.94403379103758</v>
       </c>
       <c r="AS4">
-        <v>17.79694552602698</v>
+        <v>19.04094370506156</v>
       </c>
       <c r="AT4">
-        <v>8.746006384097223</v>
+        <v>10.78828819425241</v>
       </c>
       <c r="AU4">
-        <v>6.586176604080777</v>
+        <v>6.283869400554124</v>
       </c>
       <c r="AV4">
-        <v>1.350962864720827</v>
+        <v>1.446530717678201</v>
       </c>
       <c r="AW4">
-        <v>0.0007685709733842602</v>
+        <v>0.0007693981506227849</v>
       </c>
       <c r="AX4">
-        <v>1.593480510444195</v>
+        <v>0.9588897001284948</v>
       </c>
       <c r="AY4">
-        <v>0.4970708916877129</v>
+        <v>0.3611216810922571</v>
       </c>
       <c r="AZ4">
-        <v>0.1268025904968226</v>
+        <v>0.04344263009634552</v>
       </c>
       <c r="BA4">
-        <v>2.112294130764582</v>
+        <v>0.9053712455952336</v>
       </c>
       <c r="BB4">
-        <v>1.038710455739789</v>
+        <v>0.8643060870429622</v>
       </c>
       <c r="BC4">
-        <v>1.864281730730397</v>
+        <v>1.251132346097378</v>
       </c>
       <c r="BD4">
-        <v>0.9948998189966289</v>
+        <v>1.137574617369083</v>
       </c>
       <c r="BE4">
-        <v>0.1863239494561242</v>
+        <v>0.4025588875310362</v>
       </c>
       <c r="BF4">
-        <v>72.41998902781434</v>
+        <v>72.50675570077004</v>
       </c>
       <c r="BG4">
-        <v>46.7751114608475</v>
+        <v>46.76882343416132</v>
       </c>
       <c r="BH4">
-        <v>46.82310653879792</v>
+        <v>46.81708502003114</v>
       </c>
       <c r="BI4">
-        <v>47.71692746225073</v>
+        <v>47.68867578842932</v>
       </c>
       <c r="BJ4">
-        <v>47.55241909545896</v>
+        <v>47.52599954962271</v>
       </c>
       <c r="BK4">
         <v>0</v>
       </c>
       <c r="BL4">
-        <v>69.66378635535997</v>
+        <v>45.74402694739286</v>
       </c>
       <c r="BM4">
-        <v>25.1974652240659</v>
+        <v>24.15501350106625</v>
       </c>
     </row>
     <row r="5" spans="1:65">
@@ -1362,193 +1362,193 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040593256574141</v>
+        <v>1.040089035739364</v>
       </c>
       <c r="D5">
-        <v>0.9915555640810726</v>
+        <v>0.9917350115902586</v>
       </c>
       <c r="E5">
-        <v>1.006163978061233</v>
+        <v>1.006340441472896</v>
       </c>
       <c r="F5">
-        <v>0.9906004266760321</v>
+        <v>0.990751109597522</v>
       </c>
       <c r="G5">
-        <v>1.005224745232177</v>
+        <v>1.005372916660522</v>
       </c>
       <c r="H5">
-        <v>0.9721193876244408</v>
+        <v>0.972752365998875</v>
       </c>
       <c r="I5">
-        <v>0.9870586583601867</v>
+        <v>0.9876806174872722</v>
       </c>
       <c r="J5">
-        <v>0.9755170714570488</v>
+        <v>0.9761124630814758</v>
       </c>
       <c r="K5">
-        <v>0.990397389910108</v>
+        <v>0.9909825005933723</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9918045857664129</v>
+        <v>0.9923905277981205</v>
       </c>
       <c r="N5">
-        <v>0.9918045857664129</v>
+        <v>0.9923905277981205</v>
       </c>
       <c r="O5">
-        <v>1.006589750609177</v>
+        <v>1.006300800237493</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.025284685679057</v>
+        <v>1.022385190025363</v>
       </c>
       <c r="R5">
         <v>0.9999999999999999</v>
       </c>
       <c r="S5">
-        <v>16.75331728593412</v>
+        <v>15.58040069405939</v>
       </c>
       <c r="T5">
-        <v>12.81731603420174</v>
+        <v>11.64248831370132</v>
       </c>
       <c r="U5">
-        <v>3.11914972688501</v>
+        <v>2.119062338091108</v>
       </c>
       <c r="V5">
-        <v>5.616846884426905</v>
+        <v>4.61586909506168</v>
       </c>
       <c r="W5">
-        <v>6.410021654894805</v>
+        <v>4.037985702923032</v>
       </c>
       <c r="X5">
-        <v>8.912466085578274</v>
+        <v>6.539680308156732</v>
       </c>
       <c r="Y5">
-        <v>-1.022751697332539</v>
+        <v>-1.849693640422983</v>
       </c>
       <c r="Z5">
-        <v>1.574261707868833</v>
+        <v>0.7439932727469696</v>
       </c>
       <c r="AA5">
-        <v>0.7999378837580535</v>
+        <v>-0.29616580026758</v>
       </c>
       <c r="AB5">
-        <v>3.37916964222502</v>
+        <v>2.279968696242852</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>3.366329131738012</v>
+        <v>2.267128185755851</v>
       </c>
       <c r="AE5">
-        <v>3.366329131738012</v>
+        <v>2.267128185755851</v>
       </c>
       <c r="AF5">
-        <v>13.9706849740753</v>
+        <v>9.851313814824966</v>
       </c>
       <c r="AG5">
-        <v>17.93241611016261</v>
+        <v>12.44024154728873</v>
       </c>
       <c r="AH5">
-        <v>9.922147481837825</v>
+        <v>8.557037807542519</v>
       </c>
       <c r="AI5">
-        <v>10.02348167951604</v>
+        <v>9.065152115721972</v>
       </c>
       <c r="AJ5">
-        <v>47.5199421048786</v>
+        <v>46.39106266843419</v>
       </c>
       <c r="AK5">
-        <v>30.18319932155389</v>
+        <v>31.19837585851885</v>
       </c>
       <c r="AL5">
-        <v>2.044557364297622</v>
+        <v>2.04576525556245</v>
       </c>
       <c r="AM5">
-        <v>31.28037121236326</v>
+        <v>24.37236052326821</v>
       </c>
       <c r="AN5">
-        <v>15.88974906694716</v>
+        <v>13.5639247419158</v>
       </c>
       <c r="AO5">
-        <v>11.12224813153435</v>
+        <v>7.658886216704948</v>
       </c>
       <c r="AP5">
-        <v>45.24815038088587</v>
+        <v>29.71858994265332</v>
       </c>
       <c r="AQ5">
-        <v>25.48594288815617</v>
+        <v>23.18491895692812</v>
       </c>
       <c r="AR5">
-        <v>19.96762671412128</v>
+        <v>16.56856477251905</v>
       </c>
       <c r="AS5">
-        <v>17.72584889073543</v>
+        <v>19.00341316252628</v>
       </c>
       <c r="AT5">
-        <v>8.657811414067078</v>
+        <v>10.64115139964582</v>
       </c>
       <c r="AU5">
-        <v>6.601403921317683</v>
+        <v>6.288817072868369</v>
       </c>
       <c r="AV5">
-        <v>1.319080864774918</v>
+        <v>1.412233511504894</v>
       </c>
       <c r="AW5">
-        <v>0.0007691693139509298</v>
+        <v>0.0007700784079506686</v>
       </c>
       <c r="AX5">
-        <v>1.609788996498196</v>
+        <v>0.9680274325591824</v>
       </c>
       <c r="AY5">
-        <v>0.517529401599262</v>
+        <v>0.3767482483883242</v>
       </c>
       <c r="AZ5">
-        <v>0.1546743923047487</v>
+        <v>0.05394842445318737</v>
       </c>
       <c r="BA5">
-        <v>2.112499428623295</v>
+        <v>0.9057208907249361</v>
       </c>
       <c r="BB5">
-        <v>1.048723916590632</v>
+        <v>0.8684031147609943</v>
       </c>
       <c r="BC5">
-        <v>2.006781064503741</v>
+        <v>1.358853875122392</v>
       </c>
       <c r="BD5">
-        <v>0.9867458930099389</v>
+        <v>1.133031955942982</v>
       </c>
       <c r="BE5">
-        <v>0.1796364711480152</v>
+        <v>0.3887756810968384</v>
       </c>
       <c r="BF5">
-        <v>72.40668165229397</v>
+        <v>72.49118950127964</v>
       </c>
       <c r="BG5">
-        <v>45.92413312559579</v>
+        <v>45.91582347513019</v>
       </c>
       <c r="BH5">
-        <v>45.96841319671343</v>
+        <v>45.96142187999451</v>
       </c>
       <c r="BI5">
-        <v>46.84232235873949</v>
+        <v>46.8118416546078</v>
       </c>
       <c r="BJ5">
-        <v>46.67917257282907</v>
+        <v>46.65070004590611</v>
       </c>
       <c r="BK5">
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>69.67122537599182</v>
+        <v>45.75945227201893</v>
       </c>
       <c r="BM5">
-        <v>25.34802595811233</v>
+        <v>24.11437094708547</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -1559,193 +1559,193 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040636251898589</v>
+        <v>1.040143526392911</v>
       </c>
       <c r="D6">
-        <v>0.9916990494945727</v>
+        <v>0.9919287310885814</v>
       </c>
       <c r="E6">
-        <v>1.006284532762325</v>
+        <v>1.006510410535735</v>
       </c>
       <c r="F6">
-        <v>0.9907759728455129</v>
+        <v>0.9909493872532462</v>
       </c>
       <c r="G6">
-        <v>1.005376764164885</v>
+        <v>1.005547300180565</v>
       </c>
       <c r="H6">
-        <v>0.9723311810729539</v>
+        <v>0.9730179380817687</v>
       </c>
       <c r="I6">
-        <v>0.9872449796327665</v>
+        <v>0.9879198336636638</v>
       </c>
       <c r="J6">
-        <v>0.9757490917291908</v>
+        <v>0.9763992996448221</v>
       </c>
       <c r="K6">
-        <v>0.9906038444168735</v>
+        <v>0.9912428744239548</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.992011333611922</v>
+        <v>0.992651271578159</v>
       </c>
       <c r="N6">
-        <v>0.992011333611922</v>
+        <v>0.992651271578159</v>
       </c>
       <c r="O6">
-        <v>1.006656742305934</v>
+        <v>1.006377575120322</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q6">
-        <v>1.025366580229128</v>
+        <v>1.022453142693466</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S6">
-        <v>16.8647693608648</v>
+        <v>15.65005204101552</v>
       </c>
       <c r="T6">
-        <v>12.92893098674214</v>
+        <v>11.71234628397417</v>
       </c>
       <c r="U6">
-        <v>3.253863570805346</v>
+        <v>2.222786293845196</v>
       </c>
       <c r="V6">
-        <v>5.723878779167628</v>
+        <v>4.691674686912172</v>
       </c>
       <c r="W6">
-        <v>6.57424990599243</v>
+        <v>4.158956431542555</v>
       </c>
       <c r="X6">
-        <v>9.048801461468118</v>
+        <v>6.632654815891024</v>
       </c>
       <c r="Y6">
-        <v>-0.8898251374704023</v>
+        <v>-1.738585368013245</v>
       </c>
       <c r="Z6">
-        <v>1.678039018082286</v>
+        <v>0.8257111169496332</v>
       </c>
       <c r="AA6">
-        <v>0.9514131847723378</v>
+        <v>-0.173684832256375</v>
       </c>
       <c r="AB6">
-        <v>3.501594336414972</v>
+        <v>2.373152943771384</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>3.488753825927971</v>
+        <v>2.36031243328438</v>
       </c>
       <c r="AE6">
-        <v>3.488753825927971</v>
+        <v>2.36031243328438</v>
       </c>
       <c r="AF6">
-        <v>14.10667960314085</v>
+        <v>9.944334365899797</v>
       </c>
       <c r="AG6">
-        <v>18.06814667023854</v>
+        <v>12.53306445883274</v>
       </c>
       <c r="AH6">
-        <v>10.03936841421833</v>
+        <v>8.621180394857612</v>
       </c>
       <c r="AI6">
-        <v>10.13100892628145</v>
+        <v>9.080693314328663</v>
       </c>
       <c r="AJ6">
-        <v>47.5428714472036</v>
+        <v>46.34749208383813</v>
       </c>
       <c r="AK6">
-        <v>29.98810532842043</v>
+        <v>30.98037490186108</v>
       </c>
       <c r="AL6">
-        <v>2.044983565018961</v>
+        <v>2.046302766301399</v>
       </c>
       <c r="AM6">
-        <v>31.36176083463493</v>
+        <v>24.36851981146095</v>
       </c>
       <c r="AN6">
-        <v>16.05492108296517</v>
+        <v>13.66712808322917</v>
       </c>
       <c r="AO6">
-        <v>11.56578403772406</v>
+        <v>7.874028229768211</v>
       </c>
       <c r="AP6">
-        <v>45.25079064695674</v>
+        <v>29.72438361841691</v>
       </c>
       <c r="AQ6">
-        <v>25.53872222636405</v>
+        <v>23.11442810658923</v>
       </c>
       <c r="AR6">
-        <v>20.32962893879604</v>
+        <v>16.82210955602646</v>
       </c>
       <c r="AS6">
-        <v>17.69247751751119</v>
+        <v>19.03227420914685</v>
       </c>
       <c r="AT6">
-        <v>8.609147767788619</v>
+        <v>10.53576950736193</v>
       </c>
       <c r="AU6">
-        <v>6.608240891385094</v>
+        <v>6.277299956757361</v>
       </c>
       <c r="AV6">
-        <v>1.301891925835662</v>
+        <v>1.39236940126483</v>
       </c>
       <c r="AW6">
-        <v>0.0007694900238212841</v>
+        <v>0.0007704831267305747</v>
       </c>
       <c r="AX6">
-        <v>1.617994812034809</v>
+        <v>0.9679243377930788</v>
       </c>
       <c r="AY6">
-        <v>0.5284339275134329</v>
+        <v>0.382571845186078</v>
       </c>
       <c r="AZ6">
-        <v>0.1710878002593326</v>
+        <v>0.05950840866695017</v>
       </c>
       <c r="BA6">
-        <v>2.112614719454768</v>
+        <v>0.905926234182175</v>
       </c>
       <c r="BB6">
-        <v>1.053345478457373</v>
+        <v>0.8631706986870427</v>
       </c>
       <c r="BC6">
-        <v>2.084183024549588</v>
+        <v>1.404239927523676</v>
       </c>
       <c r="BD6">
-        <v>0.982944374195327</v>
+        <v>1.136808525406721</v>
       </c>
       <c r="BE6">
-        <v>0.175971358365743</v>
+        <v>0.3789618244989299</v>
       </c>
       <c r="BF6">
-        <v>72.39963429813952</v>
+        <v>72.48189170938369</v>
       </c>
       <c r="BG6">
-        <v>45.46501978135619</v>
+        <v>45.45449233327686</v>
       </c>
       <c r="BH6">
-        <v>45.50737819461959</v>
+        <v>45.49941448311371</v>
       </c>
       <c r="BI6">
-        <v>46.37063767992036</v>
+        <v>46.33790923866189</v>
       </c>
       <c r="BJ6">
-        <v>46.2082079139015</v>
+        <v>46.1774367503378</v>
       </c>
       <c r="BK6">
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>69.67529074818772</v>
+        <v>45.76837313367814</v>
       </c>
       <c r="BM6">
-        <v>25.41823078202902</v>
+        <v>23.87274762561296</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -1756,193 +1756,193 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040587148833973</v>
+        <v>1.040106669817418</v>
       </c>
       <c r="D7">
-        <v>0.9915382730027553</v>
+        <v>0.99181894669158</v>
       </c>
       <c r="E7">
-        <v>1.006151535212495</v>
+        <v>1.00642753801244</v>
       </c>
       <c r="F7">
-        <v>0.9905671242184755</v>
+        <v>0.9907561516967875</v>
       </c>
       <c r="G7">
-        <v>1.005196571872002</v>
+        <v>1.005382446057477</v>
       </c>
       <c r="H7">
-        <v>0.972086173886668</v>
+        <v>0.9728073765512171</v>
       </c>
       <c r="I7">
-        <v>0.9870308601828188</v>
+        <v>0.9877394974368353</v>
       </c>
       <c r="J7">
-        <v>0.9754809770026964</v>
+        <v>0.976179551850729</v>
       </c>
       <c r="K7">
-        <v>0.9903667062961022</v>
+        <v>0.99105320877196</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9917738585559123</v>
+        <v>0.99246133644169</v>
       </c>
       <c r="N7">
-        <v>0.9917738585559123</v>
+        <v>0.99246133644169</v>
       </c>
       <c r="O7">
-        <v>1.006577335170948</v>
+        <v>1.006304995692972</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Q7">
-        <v>1.025261579653187</v>
+        <v>1.022323811710202</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S7">
-        <v>16.71330780094278</v>
+        <v>15.41076713326193</v>
       </c>
       <c r="T7">
-        <v>12.77728341038806</v>
+        <v>11.47292162200665</v>
       </c>
       <c r="U7">
-        <v>3.077984344949337</v>
+        <v>1.981506581288942</v>
       </c>
       <c r="V7">
-        <v>5.581713801909918</v>
+        <v>4.483840194182648</v>
       </c>
       <c r="W7">
-        <v>6.357660487785935</v>
+        <v>3.84992883145545</v>
       </c>
       <c r="X7">
-        <v>8.866228623384377</v>
+        <v>6.357554058996355</v>
       </c>
       <c r="Y7">
-        <v>-1.060148274204337</v>
+        <v>-1.955303765475023</v>
       </c>
       <c r="Z7">
-        <v>1.543222348143747</v>
+        <v>0.6442678468854998</v>
       </c>
       <c r="AA7">
-        <v>0.755788138650241</v>
+        <v>-0.4308221989580857</v>
       </c>
       <c r="AB7">
-        <v>3.34134815258616</v>
+        <v>2.151095330088679</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>3.328507642099155</v>
+        <v>2.138254819601682</v>
       </c>
       <c r="AE7">
-        <v>3.328507642099155</v>
+        <v>2.138254819601682</v>
       </c>
       <c r="AF7">
-        <v>13.92451067805863</v>
+        <v>9.669190081178895</v>
       </c>
       <c r="AG7">
-        <v>17.88629075739778</v>
+        <v>12.25810701261389</v>
       </c>
       <c r="AH7">
-        <v>9.876692181152928</v>
+        <v>8.346653977006172</v>
       </c>
       <c r="AI7">
-        <v>9.94822379638539</v>
+        <v>8.705342075517301</v>
       </c>
       <c r="AJ7">
-        <v>47.49064085255895</v>
+        <v>46.1593560249763</v>
       </c>
       <c r="AK7">
-        <v>30.21838207947034</v>
+        <v>31.16881850724437</v>
       </c>
       <c r="AL7">
-        <v>2.044494021633458</v>
+        <v>2.045911224169077</v>
       </c>
       <c r="AM7">
-        <v>31.23282760487636</v>
+        <v>24.0832315074268</v>
       </c>
       <c r="AN7">
-        <v>15.83040337670123</v>
+        <v>13.31180953216098</v>
       </c>
       <c r="AO7">
-        <v>10.98696945989035</v>
+        <v>7.332454776345784</v>
       </c>
       <c r="AP7">
-        <v>45.2476656656879</v>
+        <v>29.71890440893857</v>
       </c>
       <c r="AQ7">
-        <v>25.42919240939695</v>
+        <v>22.75000783518693</v>
       </c>
       <c r="AR7">
-        <v>19.84846946221553</v>
+        <v>16.11957263570195</v>
       </c>
       <c r="AS7">
-        <v>17.75617065113764</v>
+        <v>19.22543068377773</v>
       </c>
       <c r="AT7">
-        <v>8.660190435682658</v>
+        <v>10.54202641041872</v>
       </c>
       <c r="AU7">
-        <v>6.593086186199116</v>
+        <v>6.22526174903237</v>
       </c>
       <c r="AV7">
-        <v>1.322186199219544</v>
+        <v>1.409466440504474</v>
       </c>
       <c r="AW7">
-        <v>0.0007691216552354604</v>
+        <v>0.0007701883044632033</v>
       </c>
       <c r="AX7">
-        <v>1.604932918675573</v>
+        <v>0.9446333223435914</v>
       </c>
       <c r="AY7">
-        <v>0.5136515946104367</v>
+        <v>0.3628899775492016</v>
       </c>
       <c r="AZ7">
-        <v>0.1498624316268078</v>
+        <v>0.04664482560313843</v>
       </c>
       <c r="BA7">
-        <v>2.112478494336045</v>
+        <v>0.9057319787960267</v>
       </c>
       <c r="BB7">
-        <v>1.043896805635555</v>
+        <v>0.8351638498624112</v>
       </c>
       <c r="BC7">
-        <v>1.981816588961578</v>
+        <v>1.283078544381596</v>
       </c>
       <c r="BD7">
-        <v>0.9902996682951937</v>
+        <v>1.161306204551238</v>
       </c>
       <c r="BE7">
-        <v>0.1798063378902484</v>
+        <v>0.3793491845784089</v>
       </c>
       <c r="BF7">
-        <v>72.40768479588831</v>
+        <v>72.48817620782512</v>
       </c>
       <c r="BG7">
-        <v>46.02474222241997</v>
+        <v>46.01171773421082</v>
       </c>
       <c r="BH7">
-        <v>46.0698647298839</v>
+        <v>46.06107500867827</v>
       </c>
       <c r="BI7">
-        <v>46.94572831558006</v>
+        <v>46.91092452485391</v>
       </c>
       <c r="BJ7">
-        <v>46.78235095761291</v>
+        <v>46.74887251233214</v>
       </c>
       <c r="BK7">
         <v>0</v>
       </c>
       <c r="BL7">
-        <v>69.67047903163257</v>
+        <v>45.75993647416318</v>
       </c>
       <c r="BM7">
-        <v>25.29318956565977</v>
+        <v>23.20384763974749</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -1953,193 +1953,193 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04030917796284</v>
+        <v>1.039821858792332</v>
       </c>
       <c r="D8">
-        <v>0.9906223815044256</v>
+        <v>0.9908670071402108</v>
       </c>
       <c r="E8">
-        <v>1.0053819661728</v>
+        <v>1.005622415812112</v>
       </c>
       <c r="F8">
-        <v>0.9894511186746652</v>
+        <v>0.9896067628235239</v>
       </c>
       <c r="G8">
-        <v>1.004230731913431</v>
+        <v>1.004383711306641</v>
       </c>
       <c r="H8">
-        <v>0.970726168737011</v>
+        <v>0.9713548723435401</v>
       </c>
       <c r="I8">
-        <v>0.9858338034350375</v>
+        <v>0.9864512487845137</v>
       </c>
       <c r="J8">
-        <v>0.9740088421961216</v>
+        <v>0.9746494679655425</v>
       </c>
       <c r="K8">
-        <v>0.9890578847120047</v>
+        <v>0.9896871308709532</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9904631773462454</v>
+        <v>0.9910933175630704</v>
       </c>
       <c r="N8">
-        <v>0.9904631773462454</v>
+        <v>0.9910933175630704</v>
       </c>
       <c r="O8">
-        <v>1.006151708171692</v>
+        <v>1.005865288350699</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Q8">
-        <v>1.02471024265801</v>
+        <v>1.021754782389626</v>
       </c>
       <c r="R8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="S8">
-        <v>15.99372345731256</v>
+        <v>14.59814981237691</v>
       </c>
       <c r="T8">
-        <v>12.05664570185425</v>
+        <v>10.65922400858887</v>
       </c>
       <c r="U8">
-        <v>2.225290609607653</v>
+        <v>1.059028678708542</v>
       </c>
       <c r="V8">
-        <v>4.898655288309982</v>
+        <v>3.731093355417795</v>
       </c>
       <c r="W8">
-        <v>5.312680113226008</v>
+        <v>2.704564348646261</v>
       </c>
       <c r="X8">
-        <v>7.992282261429143</v>
+        <v>5.38333637667606</v>
       </c>
       <c r="Y8">
-        <v>-1.894200377015809</v>
+        <v>-2.839474249445413</v>
       </c>
       <c r="Z8">
-        <v>0.8881389879147965</v>
+        <v>-0.06067892886117758</v>
       </c>
       <c r="AA8">
-        <v>-0.1983581100439275</v>
+        <v>-1.451154825360785</v>
       </c>
       <c r="AB8">
-        <v>2.565550508968479</v>
+        <v>1.309178193422477</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>2.552709998481475</v>
+        <v>1.296337682935476</v>
       </c>
       <c r="AE8">
-        <v>2.552709998481475</v>
+        <v>1.296337682935476</v>
       </c>
       <c r="AF8">
-        <v>13.05273285982335</v>
+        <v>8.694709123805007</v>
       </c>
       <c r="AG8">
-        <v>17.01619154769168</v>
+        <v>11.28475855446322</v>
       </c>
       <c r="AH8">
-        <v>9.111166796046813</v>
+        <v>7.462145198274894</v>
       </c>
       <c r="AI8">
-        <v>9.161862278575233</v>
+        <v>7.71635660378</v>
       </c>
       <c r="AJ8">
-        <v>47.29449311491235</v>
+        <v>45.82625924687536</v>
       </c>
       <c r="AK8">
-        <v>31.3975470103731</v>
+        <v>32.31313714306235</v>
       </c>
       <c r="AL8">
-        <v>2.041792115473543</v>
+        <v>2.043091119167718</v>
       </c>
       <c r="AM8">
-        <v>30.6747291659021</v>
+        <v>23.38626246243055</v>
       </c>
       <c r="AN8">
-        <v>14.76329606580818</v>
+        <v>12.10544359857294</v>
       </c>
       <c r="AO8">
-        <v>8.607191724694527</v>
+        <v>6.598256832343602</v>
       </c>
       <c r="AP8">
-        <v>45.2319189341172</v>
+        <v>29.68729162402387</v>
       </c>
       <c r="AQ8">
-        <v>24.99734247669282</v>
+        <v>22.05751322141282</v>
       </c>
       <c r="AR8">
-        <v>17.54546163230187</v>
+        <v>13.59865058292936</v>
       </c>
       <c r="AS8">
-        <v>18.01967354693719</v>
+        <v>19.62385310159586</v>
       </c>
       <c r="AT8">
-        <v>8.948112319579165</v>
+        <v>10.88286270939554</v>
       </c>
       <c r="AU8">
-        <v>6.535529051720403</v>
+        <v>6.131676901593096</v>
       </c>
       <c r="AV8">
-        <v>1.428541629995976</v>
+        <v>1.515736491798037</v>
       </c>
       <c r="AW8">
-        <v>0.0007670901292587357</v>
+        <v>0.000768066496980322</v>
       </c>
       <c r="AX8">
-        <v>1.548064384269566</v>
+        <v>0.8881093315746114</v>
       </c>
       <c r="AY8">
-        <v>0.4462606286364945</v>
+        <v>0.2998631654075865</v>
       </c>
       <c r="AZ8">
-        <v>0.07416005044476215</v>
+        <v>0.03130030583433863</v>
       </c>
       <c r="BA8">
-        <v>2.111842584081387</v>
+        <v>0.9046536340911047</v>
       </c>
       <c r="BB8">
-        <v>1.006756934547511</v>
+        <v>0.7823299725376955</v>
       </c>
       <c r="BC8">
-        <v>1.525524074985427</v>
+        <v>0.8884883115078139</v>
       </c>
       <c r="BD8">
-        <v>1.020800569035288</v>
+        <v>1.212146780743808</v>
       </c>
       <c r="BE8">
-        <v>0.2018589156392352</v>
+        <v>0.4108978099035312</v>
       </c>
       <c r="BF8">
-        <v>72.45387196078507</v>
+        <v>72.53735615238288</v>
       </c>
       <c r="BG8">
-        <v>48.84370055033529</v>
+        <v>48.83164199836502</v>
       </c>
       <c r="BH8">
-        <v>48.90151928421999</v>
+        <v>48.89382811270341</v>
       </c>
       <c r="BI8">
-        <v>49.84481156371382</v>
+        <v>49.81254980882996</v>
       </c>
       <c r="BJ8">
-        <v>49.67682105592164</v>
+        <v>49.64416905870905</v>
       </c>
       <c r="BK8">
         <v>0</v>
       </c>
       <c r="BL8">
-        <v>69.64623286742554</v>
+        <v>45.71126041903115</v>
       </c>
       <c r="BM8">
-        <v>24.72646990038702</v>
+        <v>22.21225340023047</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -2150,193 +2150,193 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039886827925174</v>
+        <v>1.039381849299818</v>
       </c>
       <c r="D9">
-        <v>0.9892367470045466</v>
+        <v>0.9893888334119567</v>
       </c>
       <c r="E9">
-        <v>1.004204274128009</v>
+        <v>1.004353671293864</v>
       </c>
       <c r="F9">
-        <v>0.987851550020769</v>
+        <v>0.9879507547311864</v>
       </c>
       <c r="G9">
-        <v>1.002843616870684</v>
+        <v>1.0029410613267</v>
       </c>
       <c r="H9">
-        <v>0.968699983790959</v>
+        <v>0.9691611334839286</v>
       </c>
       <c r="I9">
-        <v>0.9840400957735014</v>
+        <v>0.9844926679926285</v>
       </c>
       <c r="J9">
-        <v>0.9718539937358783</v>
+        <v>0.9723707611075374</v>
       </c>
       <c r="K9">
-        <v>0.9871356384927551</v>
+        <v>0.9876428703638261</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9885381999233982</v>
+        <v>0.989046152489611</v>
       </c>
       <c r="N9">
-        <v>0.9885381999233982</v>
+        <v>0.989046152489611</v>
       </c>
       <c r="O9">
-        <v>1.005540431400161</v>
+        <v>1.00523014145689</v>
       </c>
       <c r="P9">
         <v>0.9999999999999999</v>
       </c>
       <c r="Q9">
-        <v>1.023897887897194</v>
+        <v>1.020943290671321</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
       <c r="S9">
-        <v>15.05972197831451</v>
+        <v>13.58867047089739</v>
       </c>
       <c r="T9">
-        <v>11.12104265565243</v>
+        <v>9.648074537814921</v>
       </c>
       <c r="U9">
-        <v>1.113795931965337</v>
+        <v>-0.1095746843595619</v>
       </c>
       <c r="V9">
-        <v>4.010372323901899</v>
+        <v>2.786124908020159</v>
       </c>
       <c r="W9">
-        <v>3.951271927810164</v>
+        <v>1.259798320642176</v>
       </c>
       <c r="X9">
-        <v>6.855852422969106</v>
+        <v>4.163804484541206</v>
       </c>
       <c r="Y9">
-        <v>-2.984398669460502</v>
+        <v>-3.971274963422546</v>
       </c>
       <c r="Z9">
-        <v>0.03430955353614563</v>
+        <v>-0.9553927673394013</v>
       </c>
       <c r="AA9">
-        <v>-1.444670725814934</v>
+        <v>-2.752150920087654</v>
       </c>
       <c r="AB9">
-        <v>1.554787479413273</v>
+        <v>0.2441707211146548</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>1.54194696892627</v>
+        <v>0.2313302106276501</v>
       </c>
       <c r="AE9">
-        <v>1.54194696892627</v>
+        <v>0.2313302106276501</v>
       </c>
       <c r="AF9">
-        <v>11.91942792484626</v>
+        <v>7.474798243823209</v>
       </c>
       <c r="AG9">
-        <v>15.88529988782268</v>
+        <v>10.06648529388359</v>
       </c>
       <c r="AH9">
-        <v>8.118039468962294</v>
+        <v>6.372264695122693</v>
       </c>
       <c r="AI9">
-        <v>8.152360678090337</v>
+        <v>6.544367615041304</v>
       </c>
       <c r="AJ9">
-        <v>47.05879856176745</v>
+        <v>45.4862768296861</v>
       </c>
       <c r="AK9">
-        <v>32.95611926721428</v>
+        <v>33.84990891984752</v>
       </c>
       <c r="AL9">
-        <v>2.037823867270101</v>
+        <v>2.038870987010035</v>
       </c>
       <c r="AM9">
-        <v>29.98879184766193</v>
+        <v>22.59024799765797</v>
       </c>
       <c r="AN9">
-        <v>13.3771024958447</v>
+        <v>10.60635897909131</v>
       </c>
       <c r="AO9">
-        <v>7.38738615015367</v>
+        <v>8.748541638305266</v>
       </c>
       <c r="AP9">
-        <v>45.21226499384601</v>
+        <v>29.64643488636204</v>
       </c>
       <c r="AQ9">
-        <v>24.45861483288574</v>
+        <v>21.31962267764196</v>
       </c>
       <c r="AR9">
-        <v>14.5798668307437</v>
+        <v>10.49453798299461</v>
       </c>
       <c r="AS9">
-        <v>18.36083422621648</v>
+        <v>20.07144107046414</v>
       </c>
       <c r="AT9">
-        <v>9.354255132851504</v>
+        <v>11.38077212176559</v>
       </c>
       <c r="AU9">
-        <v>6.465933272334382</v>
+        <v>6.035501845995839</v>
       </c>
       <c r="AV9">
-        <v>1.575333480740767</v>
+        <v>1.664474954643993</v>
       </c>
       <c r="AW9">
-        <v>0.0007641113284963202</v>
+        <v>0.0007648967953821258</v>
       </c>
       <c r="AX9">
-        <v>1.47704994500738</v>
+        <v>0.8250682758093291</v>
       </c>
       <c r="AY9">
-        <v>0.3658576195057464</v>
+        <v>0.2300306981962592</v>
       </c>
       <c r="AZ9">
-        <v>0.04323168209946449</v>
+        <v>0.08715211532381417</v>
       </c>
       <c r="BA9">
-        <v>2.11120725948453</v>
+        <v>0.9033945515388524</v>
       </c>
       <c r="BB9">
-        <v>0.9610541664859227</v>
+        <v>0.7272522902304672</v>
       </c>
       <c r="BC9">
-        <v>1.021084619863785</v>
+        <v>0.495159122855199</v>
       </c>
       <c r="BD9">
-        <v>1.060790968540402</v>
+        <v>1.27025251958392</v>
       </c>
       <c r="BE9">
-        <v>0.2341179489208187</v>
+        <v>0.4587999850429583</v>
       </c>
       <c r="BF9">
-        <v>72.52604155760977</v>
+        <v>72.6154762001926</v>
       </c>
       <c r="BG9">
-        <v>52.55848616818854</v>
+        <v>52.55040700752868</v>
       </c>
       <c r="BH9">
-        <v>52.63218535559232</v>
+        <v>52.62690031412459</v>
       </c>
       <c r="BI9">
-        <v>53.67274363010844</v>
+        <v>53.64720487459016</v>
       </c>
       <c r="BJ9">
-        <v>53.49855659350457</v>
+        <v>53.47012473439873</v>
       </c>
       <c r="BK9">
         <v>0</v>
       </c>
       <c r="BL9">
-        <v>69.6159705453055</v>
+        <v>45.64835090883459</v>
       </c>
       <c r="BM9">
-        <v>23.90557348668715</v>
+        <v>21.16206440129071</v>
       </c>
     </row>
     <row r="10" spans="1:65">
@@ -2347,193 +2347,193 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039358078871664</v>
+        <v>1.038828317913499</v>
       </c>
       <c r="D10">
-        <v>0.9875075425186011</v>
+        <v>0.9875114544598184</v>
       </c>
       <c r="E10">
-        <v>1.002720031368234</v>
+        <v>1.002723871311471</v>
       </c>
       <c r="F10">
-        <v>0.9859530985909519</v>
+        <v>0.9859837284954498</v>
       </c>
       <c r="G10">
-        <v>1.001194252526654</v>
+        <v>1.001224316510972</v>
       </c>
       <c r="H10">
-        <v>0.9662057880174159</v>
+        <v>0.9664435905232016</v>
       </c>
       <c r="I10">
-        <v>0.981821101822138</v>
+        <v>0.9820542852248775</v>
       </c>
       <c r="J10">
-        <v>0.9692435099677302</v>
+        <v>0.9695765748495189</v>
       </c>
       <c r="K10">
-        <v>0.9848000310479876</v>
+        <v>0.9851266776342922</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.986199273955024</v>
+        <v>0.986526384653742</v>
       </c>
       <c r="N10">
-        <v>0.986199273955024</v>
+        <v>0.986526384653742</v>
       </c>
       <c r="O10">
-        <v>1.004813582990176</v>
+        <v>1.004474321259127</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Q10">
-        <v>1.022909885614918</v>
+        <v>1.020006075211405</v>
       </c>
       <c r="R10">
         <v>0.9999999999999999</v>
       </c>
       <c r="S10">
-        <v>14.06616897129497</v>
+        <v>12.59250457350397</v>
       </c>
       <c r="T10">
-        <v>10.12548277323912</v>
+        <v>8.649805605679326</v>
       </c>
       <c r="U10">
-        <v>-0.07567203422812104</v>
+        <v>-1.302179438012542</v>
       </c>
       <c r="V10">
-        <v>3.062847567875701</v>
+        <v>1.836315687680314</v>
       </c>
       <c r="W10">
-        <v>2.495668819809444</v>
+        <v>-0.2035578400342136</v>
       </c>
       <c r="X10">
-        <v>5.643936894231941</v>
+        <v>2.944517707830039</v>
       </c>
       <c r="Y10">
-        <v>-4.155483621532378</v>
+        <v>-5.146043614021677</v>
       </c>
       <c r="Z10">
-        <v>-0.8793437921503993</v>
+        <v>-1.871489346692745</v>
       </c>
       <c r="AA10">
-        <v>-2.782146935103475</v>
+        <v>-4.093897526060038</v>
       </c>
       <c r="AB10">
-        <v>0.4738243467737274</v>
+        <v>-0.8401263266041127</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.4609838362867242</v>
+        <v>-0.8529668370911155</v>
       </c>
       <c r="AE10">
-        <v>0.4609838362867242</v>
+        <v>-0.8529668370911155</v>
       </c>
       <c r="AF10">
-        <v>10.71124427519431</v>
+        <v>6.255062501342244</v>
       </c>
       <c r="AG10">
-        <v>14.67998961209282</v>
+        <v>8.848701007962495</v>
       </c>
       <c r="AH10">
-        <v>7.062705606621474</v>
+        <v>5.313072473606259</v>
       </c>
       <c r="AI10">
-        <v>7.097806799710376</v>
+        <v>5.489078345061745</v>
       </c>
       <c r="AJ10">
-        <v>46.83611366860811</v>
+        <v>45.27583566715737</v>
       </c>
       <c r="AK10">
-        <v>34.6542740799178</v>
+        <v>35.56424272513352</v>
       </c>
       <c r="AL10">
-        <v>2.033002284085249</v>
+        <v>2.033676607029228</v>
       </c>
       <c r="AM10">
-        <v>29.2835255141394</v>
+        <v>21.92230136408529</v>
       </c>
       <c r="AN10">
-        <v>11.90153876632468</v>
+        <v>9.173151774024154</v>
       </c>
       <c r="AO10">
-        <v>9.248231605503893</v>
+        <v>12.80666022752961</v>
       </c>
       <c r="AP10">
-        <v>45.19344470007366</v>
+        <v>29.6052475394056</v>
       </c>
       <c r="AQ10">
-        <v>23.91982692858438</v>
+        <v>20.80183979480758</v>
       </c>
       <c r="AR10">
-        <v>11.48329094928712</v>
+        <v>7.531806709401116</v>
       </c>
       <c r="AS10">
-        <v>18.71998664486869</v>
+        <v>20.42544156432834</v>
       </c>
       <c r="AT10">
-        <v>9.826967898683318</v>
+        <v>12.00125059181997</v>
       </c>
       <c r="AU10">
-        <v>6.399401851438995</v>
+        <v>5.973795373054031</v>
       </c>
       <c r="AV10">
-        <v>1.743331123035261</v>
+        <v>1.838564941031876</v>
       </c>
       <c r="AW10">
-        <v>0.0007604997623211321</v>
+        <v>0.0007610043437393678</v>
       </c>
       <c r="AX10">
-        <v>1.405327720094945</v>
+        <v>0.7730599248109939</v>
       </c>
       <c r="AY10">
-        <v>0.2891332703827629</v>
+        <v>0.1703217394681857</v>
       </c>
       <c r="AZ10">
-        <v>0.09520679060558379</v>
+        <v>0.2321523827993488</v>
       </c>
       <c r="BA10">
-        <v>2.110878342128615</v>
+        <v>0.9023560283651619</v>
       </c>
       <c r="BB10">
-        <v>0.9159746301225766</v>
+        <v>0.6887304844651823</v>
       </c>
       <c r="BC10">
-        <v>0.5942054533307157</v>
+        <v>0.2146079293614918</v>
       </c>
       <c r="BD10">
-        <v>1.103477528329975</v>
+        <v>1.316698680378352</v>
       </c>
       <c r="BE10">
-        <v>0.2733883253293428</v>
+        <v>0.5216010713963044</v>
       </c>
       <c r="BF10">
-        <v>72.61977031913364</v>
+        <v>72.71743165069851</v>
       </c>
       <c r="BG10">
-        <v>56.58468601531116</v>
+        <v>56.58446185997153</v>
       </c>
       <c r="BH10">
-        <v>56.6738968730083</v>
+        <v>56.67213628001009</v>
       </c>
       <c r="BI10">
-        <v>57.83219778244518</v>
+        <v>57.81796762800827</v>
       </c>
       <c r="BJ10">
-        <v>57.65094494470946</v>
+        <v>57.63114093369984</v>
       </c>
       <c r="BK10">
         <v>0</v>
       </c>
       <c r="BL10">
-        <v>69.5869918374906</v>
+        <v>45.58493234015759</v>
       </c>
       <c r="BM10">
-        <v>22.91826290477047</v>
+        <v>20.24520395239171</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -2544,193 +2544,193 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038794423824209</v>
+        <v>1.038238406144701</v>
       </c>
       <c r="D11">
-        <v>0.9856652655248163</v>
+        <v>0.9854683053800208</v>
       </c>
       <c r="E11">
-        <v>1.001126695927872</v>
+        <v>1.000933505966832</v>
       </c>
       <c r="F11">
-        <v>0.9840133186038584</v>
+        <v>0.9839749603349686</v>
       </c>
       <c r="G11">
-        <v>0.9995064295003347</v>
+        <v>0.9994688084524852</v>
       </c>
       <c r="H11">
-        <v>0.9635793335933798</v>
+        <v>0.9635744323616635</v>
       </c>
       <c r="I11">
-        <v>0.9794757504331276</v>
+        <v>0.9794709485484928</v>
       </c>
       <c r="J11">
-        <v>0.9665271080831821</v>
+        <v>0.9666277698694787</v>
       </c>
       <c r="K11">
-        <v>0.9823640061972121</v>
+        <v>0.9824626436651694</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.983759787903613</v>
+        <v>0.9838585655195934</v>
       </c>
       <c r="N11">
-        <v>0.983759787903613</v>
+        <v>0.9838585655195934</v>
       </c>
       <c r="O11">
-        <v>1.004069782985019</v>
+        <v>1.003701435910072</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>1.02188688178915</v>
+        <v>1.019132330267841</v>
       </c>
       <c r="R11">
         <v>0.9999999999999999</v>
       </c>
       <c r="S11">
-        <v>13.15971370776126</v>
+        <v>11.85209745279643</v>
       </c>
       <c r="T11">
-        <v>9.216885892949737</v>
+        <v>7.907154755821404</v>
       </c>
       <c r="U11">
-        <v>-1.172444765266417</v>
+        <v>-2.276392695133535</v>
       </c>
       <c r="V11">
-        <v>2.193762810752222</v>
+        <v>1.09113903197094</v>
       </c>
       <c r="W11">
-        <v>1.156259547768018</v>
+        <v>-1.373689060650402</v>
       </c>
       <c r="X11">
-        <v>4.53359714278517</v>
+        <v>2.003907624670815</v>
       </c>
       <c r="Y11">
-        <v>-5.241765623904394</v>
+        <v>-6.146818738662722</v>
       </c>
       <c r="Z11">
-        <v>-1.722099019948571</v>
+        <v>-2.627116932237815</v>
       </c>
       <c r="AA11">
-        <v>-4.02052620539853</v>
+        <v>-5.218401750593198</v>
       </c>
       <c r="AB11">
-        <v>-0.5219370187917235</v>
+        <v>-1.720529002629843</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>-0.5347775292787299</v>
+        <v>-1.733369513116849</v>
       </c>
       <c r="AE11">
-        <v>-0.5347775292787299</v>
+        <v>-1.733369513116849</v>
       </c>
       <c r="AF11">
-        <v>9.604741712867057</v>
+        <v>5.313995613153176</v>
       </c>
       <c r="AG11">
-        <v>13.57643175377939</v>
+        <v>7.909632679375615</v>
       </c>
       <c r="AH11">
-        <v>6.103155181819953</v>
+        <v>4.56473342556334</v>
       </c>
       <c r="AI11">
-        <v>6.177913352926437</v>
+        <v>4.939537144680635</v>
       </c>
       <c r="AJ11">
-        <v>46.67441296235716</v>
+        <v>45.38462113830651</v>
       </c>
       <c r="AK11">
-        <v>36.26450613175265</v>
+        <v>37.27208179977776</v>
       </c>
       <c r="AL11">
-        <v>2.027973401135057</v>
+        <v>2.02817702643094</v>
       </c>
       <c r="AM11">
-        <v>28.67735340536818</v>
+        <v>21.66586723023332</v>
       </c>
       <c r="AN11">
-        <v>10.55482184186911</v>
+        <v>8.125501251966186</v>
       </c>
       <c r="AO11">
-        <v>12.71885920792421</v>
+        <v>16.6869677192599</v>
       </c>
       <c r="AP11">
-        <v>45.17930828250633</v>
+        <v>29.57151551557132</v>
       </c>
       <c r="AQ11">
-        <v>23.48646572469937</v>
+        <v>20.8730113426015</v>
       </c>
       <c r="AR11">
-        <v>8.770018098383161</v>
+        <v>5.523936138821956</v>
       </c>
       <c r="AS11">
-        <v>19.03206551582903</v>
+        <v>20.47898081970229</v>
       </c>
       <c r="AT11">
-        <v>10.30601764677204</v>
+        <v>12.74742684782986</v>
       </c>
       <c r="AU11">
-        <v>6.349777042452672</v>
+        <v>5.997809548086309</v>
       </c>
       <c r="AV11">
-        <v>1.910402232318091</v>
+        <v>2.020628392470485</v>
       </c>
       <c r="AW11">
-        <v>0.0007567420350443897</v>
+        <v>0.0007568940090784301</v>
       </c>
       <c r="AX11">
-        <v>1.344614588347781</v>
+        <v>0.7520069077596929</v>
       </c>
       <c r="AY11">
-        <v>0.227077472552125</v>
+        <v>0.1317971955272697</v>
       </c>
       <c r="AZ11">
-        <v>0.2213551062535402</v>
+        <v>0.4203845512408932</v>
       </c>
       <c r="BA11">
-        <v>2.111021458230113</v>
+        <v>0.9018107728522722</v>
       </c>
       <c r="BB11">
-        <v>0.879979184550578</v>
+        <v>0.6914008452111489</v>
       </c>
       <c r="BC11">
-        <v>0.3038647092705204</v>
+        <v>0.07528059334741144</v>
       </c>
       <c r="BD11">
-        <v>1.14095909230403</v>
+        <v>1.322666049003885</v>
       </c>
       <c r="BE11">
-        <v>0.3151145799470783</v>
+        <v>0.6019974107539383</v>
       </c>
       <c r="BF11">
-        <v>72.72380753784158</v>
+        <v>72.83058417627632</v>
       </c>
       <c r="BG11">
-        <v>60.3668580664706</v>
+        <v>60.3789232592737</v>
       </c>
       <c r="BH11">
-        <v>60.46820104976717</v>
+        <v>60.47055827999015</v>
       </c>
       <c r="BI11">
-        <v>61.75050990673878</v>
+        <v>61.75082400137163</v>
       </c>
       <c r="BJ11">
-        <v>61.56217936089777</v>
+        <v>61.55576845575313</v>
       </c>
       <c r="BK11">
         <v>0</v>
       </c>
       <c r="BL11">
-        <v>69.56522516800136</v>
+        <v>45.53299316882853</v>
       </c>
       <c r="BM11">
-        <v>21.9265887984689</v>
+        <v>20.23997554285005</v>
       </c>
     </row>
     <row r="12" spans="1:65">
@@ -2741,193 +2741,193 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038411138104306</v>
+        <v>1.037842675026965</v>
       </c>
       <c r="D12">
-        <v>0.9844137750978383</v>
+        <v>0.9840901002178288</v>
       </c>
       <c r="E12">
-        <v>1.000039758053116</v>
+        <v>0.9997224370115976</v>
       </c>
       <c r="F12">
-        <v>0.9827281389058364</v>
+        <v>0.9826526611800678</v>
       </c>
       <c r="G12">
-        <v>0.9983872701623667</v>
+        <v>0.9983132801253279</v>
       </c>
       <c r="H12">
-        <v>0.9618061354203036</v>
+        <v>0.9616611054491272</v>
       </c>
       <c r="I12">
-        <v>0.9778891651822326</v>
+        <v>0.97774715661866</v>
       </c>
       <c r="J12">
-        <v>0.9647073528257428</v>
+        <v>0.9646636728138847</v>
       </c>
       <c r="K12">
-        <v>0.9807301873388238</v>
+        <v>0.9806874101545336</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.98212364765065</v>
+        <v>0.982080809686842</v>
       </c>
       <c r="N12">
-        <v>0.98212364765065</v>
+        <v>0.982080809686842</v>
       </c>
       <c r="O12">
-        <v>1.003576583167013</v>
+        <v>1.003192699966194</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q12">
-        <v>1.021201083676714</v>
+        <v>1.018572839292675</v>
       </c>
       <c r="R12">
         <v>0.9999999999999998</v>
       </c>
       <c r="S12">
-        <v>12.60285939281757</v>
+        <v>11.44431255611004</v>
       </c>
       <c r="T12">
-        <v>8.658573946344378</v>
+        <v>7.497863263145734</v>
       </c>
       <c r="U12">
-        <v>-1.850138267538839</v>
+        <v>-2.843696036422316</v>
       </c>
       <c r="V12">
-        <v>1.658417805736996</v>
+        <v>0.6671308841650839</v>
       </c>
       <c r="W12">
-        <v>0.3294681164263554</v>
+        <v>-2.047163434986839</v>
       </c>
       <c r="X12">
-        <v>3.849874346095791</v>
+        <v>1.473774802630097</v>
       </c>
       <c r="Y12">
-        <v>-5.915375450169235</v>
+        <v>-6.742977794391485</v>
       </c>
       <c r="Z12">
-        <v>-2.242787778862612</v>
+        <v>-3.069301271521197</v>
       </c>
       <c r="AA12">
-        <v>-4.787750972587109</v>
+        <v>-5.882683659590385</v>
       </c>
       <c r="AB12">
-        <v>-1.136844432804667</v>
+        <v>-2.231452108285258</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>-1.149684943291669</v>
+        <v>-2.244292618772266</v>
       </c>
       <c r="AE12">
-        <v>-1.149684943291669</v>
+        <v>-2.244292618772266</v>
       </c>
       <c r="AF12">
-        <v>8.923573528322681</v>
+        <v>4.783563386741785</v>
       </c>
       <c r="AG12">
-        <v>12.89721855971149</v>
+        <v>7.380517646218755</v>
       </c>
       <c r="AH12">
-        <v>5.514457288067361</v>
+        <v>4.165836330511158</v>
       </c>
       <c r="AI12">
-        <v>5.624425636699248</v>
+        <v>4.71710500847965</v>
       </c>
       <c r="AJ12">
-        <v>46.59061690372883</v>
+        <v>45.53778063828999</v>
       </c>
       <c r="AK12">
-        <v>37.27477370529033</v>
+        <v>38.36474044277796</v>
       </c>
       <c r="AL12">
-        <v>2.02460057683941</v>
+        <v>2.024512268441597</v>
       </c>
       <c r="AM12">
-        <v>28.31941177184004</v>
+        <v>21.60916152977703</v>
       </c>
       <c r="AN12">
-        <v>9.727420248858287</v>
+        <v>7.553289870077376</v>
       </c>
       <c r="AO12">
-        <v>15.22253826168457</v>
+        <v>19.05661313838485</v>
       </c>
       <c r="AP12">
-        <v>45.17279430958448</v>
+        <v>29.55395364866529</v>
       </c>
       <c r="AQ12">
-        <v>23.23992532308446</v>
+        <v>21.06858806875033</v>
       </c>
       <c r="AR12">
-        <v>7.222236436350451</v>
+        <v>4.669874542390882</v>
       </c>
       <c r="AS12">
-        <v>19.22064364071411</v>
+        <v>20.43804993853768</v>
       </c>
       <c r="AT12">
-        <v>10.61841492520946</v>
+        <v>13.25984518271845</v>
       </c>
       <c r="AU12">
-        <v>6.323364080508156</v>
+        <v>6.035650049277081</v>
       </c>
       <c r="AV12">
-        <v>2.019084707752</v>
+        <v>2.141607924457645</v>
       </c>
       <c r="AW12">
-        <v>0.0007542269769706474</v>
+        <v>0.0007541611831159481</v>
       </c>
       <c r="AX12">
-        <v>1.309158981083911</v>
+        <v>0.7463538232995433</v>
       </c>
       <c r="AY12">
-        <v>0.192725328695083</v>
+        <v>0.1127101257915299</v>
       </c>
       <c r="AZ12">
-        <v>0.3367861996010362</v>
+        <v>0.5593701080542957</v>
       </c>
       <c r="BA12">
-        <v>2.111383906089827</v>
+        <v>0.9017370152304522</v>
       </c>
       <c r="BB12">
-        <v>0.8595842802254907</v>
+        <v>0.7035743896390159</v>
       </c>
       <c r="BC12">
-        <v>0.1733265454872637</v>
+        <v>0.02805645727409001</v>
       </c>
       <c r="BD12">
-        <v>1.163795299121688</v>
+        <v>1.316197265129318</v>
       </c>
       <c r="BE12">
-        <v>0.3433728399990272</v>
+        <v>0.6601277454607128</v>
       </c>
       <c r="BF12">
-        <v>72.79697289248918</v>
+        <v>72.90907982895899</v>
       </c>
       <c r="BG12">
-        <v>62.72598345203018</v>
+        <v>62.74661451534729</v>
       </c>
       <c r="BH12">
-        <v>62.83357494524157</v>
+        <v>62.83840120331432</v>
       </c>
       <c r="BI12">
-        <v>64.20038289707313</v>
+        <v>64.21006508098198</v>
       </c>
       <c r="BJ12">
-        <v>64.00730955959799</v>
+        <v>64.01020781327892</v>
       </c>
       <c r="BK12">
         <v>0</v>
       </c>
       <c r="BL12">
-        <v>69.55519522265077</v>
+        <v>45.50595213451154</v>
       </c>
       <c r="BM12">
-        <v>21.28961712536896</v>
+        <v>20.95808509920356</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -2938,193 +2938,193 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038242781998742</v>
+        <v>1.037662257251478</v>
       </c>
       <c r="D13">
-        <v>0.9838604936183186</v>
+        <v>0.9834343092772873</v>
       </c>
       <c r="E13">
-        <v>0.999557552579351</v>
+        <v>0.9991398249400596</v>
       </c>
       <c r="F13">
-        <v>0.9821720242966337</v>
+        <v>0.9820671737854973</v>
       </c>
       <c r="G13">
-        <v>0.9979026426944364</v>
+        <v>0.9977998810553352</v>
       </c>
       <c r="H13">
-        <v>0.9610294866486043</v>
+        <v>0.9608060724319981</v>
       </c>
       <c r="I13">
-        <v>0.9771932610254973</v>
+        <v>0.9769745558718479</v>
       </c>
       <c r="J13">
-        <v>0.963910948502162</v>
+        <v>0.9637604295119679</v>
       </c>
       <c r="K13">
-        <v>0.9800142414641145</v>
+        <v>0.979866870253826</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9814066845316727</v>
+        <v>0.9812591039305284</v>
       </c>
       <c r="N13">
-        <v>0.9814066845316727</v>
+        <v>0.9812591039305284</v>
       </c>
       <c r="O13">
-        <v>1.003363013291095</v>
+        <v>1.002966669665499</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1.020911015894282</v>
+        <v>1.01839685010245</v>
       </c>
       <c r="R13">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>12.38571290451847</v>
+        <v>11.42472750876604</v>
       </c>
       <c r="T13">
-        <v>8.440786860511084</v>
+        <v>7.47759096133341</v>
       </c>
       <c r="U13">
-        <v>-2.121852330452527</v>
+        <v>-2.968454540893499</v>
       </c>
       <c r="V13">
-        <v>1.446373913920397</v>
+        <v>0.6028144580432933</v>
       </c>
       <c r="W13">
-        <v>0.0001205204065186385</v>
+        <v>-2.1705248076699</v>
       </c>
       <c r="X13">
-        <v>3.580424340141441</v>
+        <v>1.410531011461293</v>
       </c>
       <c r="Y13">
-        <v>-6.188953521946211</v>
+        <v>-6.912560137951254</v>
       </c>
       <c r="Z13">
-        <v>-2.452120444783988</v>
+        <v>-3.174018998112693</v>
       </c>
       <c r="AA13">
-        <v>-5.097823525975748</v>
+        <v>-6.054898545888238</v>
       </c>
       <c r="AB13">
-        <v>-1.382916309258094</v>
+        <v>-2.338850733361704</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>-1.395756819745102</v>
+        <v>-2.351691243848707</v>
       </c>
       <c r="AE13">
-        <v>-1.395756819745102</v>
+        <v>-2.351691243848707</v>
       </c>
       <c r="AF13">
-        <v>8.655232287778682</v>
+        <v>4.720186898369213</v>
       </c>
       <c r="AG13">
-        <v>12.62972448470626</v>
+        <v>7.31772681318862</v>
       </c>
       <c r="AH13">
-        <v>5.288051973646239</v>
+        <v>4.191049699370479</v>
       </c>
       <c r="AI13">
-        <v>5.443697752900732</v>
+        <v>4.971222996251122</v>
       </c>
       <c r="AJ13">
-        <v>46.58069277508983</v>
+        <v>45.83198434469015</v>
       </c>
       <c r="AK13">
-        <v>37.7054897245591</v>
+        <v>38.89530949144515</v>
       </c>
       <c r="AL13">
-        <v>2.023122591915983</v>
+        <v>2.022818361617549</v>
       </c>
       <c r="AM13">
-        <v>28.20016273445213</v>
+        <v>21.8587367357927</v>
       </c>
       <c r="AN13">
-        <v>9.404764758202067</v>
+        <v>7.517135685994761</v>
       </c>
       <c r="AO13">
-        <v>16.27688296055186</v>
+        <v>19.67532617215766</v>
       </c>
       <c r="AP13">
-        <v>45.17068141480635</v>
+        <v>29.54733544863361</v>
       </c>
       <c r="AQ13">
-        <v>23.18166525424301</v>
+        <v>21.57619028998176</v>
       </c>
       <c r="AR13">
-        <v>6.657164508965736</v>
+        <v>4.630975443788002</v>
       </c>
       <c r="AS13">
-        <v>19.27744200442828</v>
+        <v>20.19879631872888</v>
       </c>
       <c r="AT13">
-        <v>10.76155598142181</v>
+        <v>13.60027563430095</v>
       </c>
       <c r="AU13">
-        <v>6.319211116824022</v>
+        <v>6.113925988485676</v>
       </c>
       <c r="AV13">
-        <v>2.066333676335034</v>
+        <v>2.201700888445373</v>
       </c>
       <c r="AW13">
-        <v>0.000753126187821511</v>
+        <v>0.0007528996996734318</v>
       </c>
       <c r="AX13">
-        <v>1.297295864115</v>
+        <v>0.7638716461947439</v>
       </c>
       <c r="AY13">
-        <v>0.1800982200222947</v>
+        <v>0.1116969053739467</v>
       </c>
       <c r="AZ13">
-        <v>0.3914733121111098</v>
+        <v>0.5978843898604964</v>
       </c>
       <c r="BA13">
-        <v>2.111607052871022</v>
+        <v>0.9017768775118782</v>
       </c>
       <c r="BB13">
-        <v>0.8545483938426486</v>
+        <v>0.7390256705626257</v>
       </c>
       <c r="BC13">
-        <v>0.1318161953661843</v>
+        <v>0.02303428696277621</v>
       </c>
       <c r="BD13">
-        <v>1.170564990388129</v>
+        <v>1.283416392742396</v>
       </c>
       <c r="BE13">
-        <v>0.3566241849755869</v>
+        <v>0.7004164298055997</v>
       </c>
       <c r="BF13">
-        <v>72.82972780417985</v>
+        <v>72.94555469087173</v>
       </c>
       <c r="BG13">
-        <v>63.71296517198058</v>
+        <v>63.74057603304245</v>
       </c>
       <c r="BH13">
-        <v>63.82249525879353</v>
+        <v>63.82930927460475</v>
       </c>
       <c r="BI13">
-        <v>65.22658277904834</v>
+        <v>65.24174977924919</v>
       </c>
       <c r="BJ13">
-        <v>65.03159805519208</v>
+        <v>65.04175461502813</v>
       </c>
       <c r="BK13">
         <v>0</v>
       </c>
       <c r="BL13">
-        <v>69.55194187489977</v>
+        <v>45.49576170457997</v>
       </c>
       <c r="BM13">
-        <v>21.09038731769565</v>
+        <v>22.96222472190165</v>
       </c>
     </row>
     <row r="14" spans="1:65">
@@ -3135,193 +3135,193 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03798715119146</v>
+        <v>1.037388610052627</v>
       </c>
       <c r="D14">
-        <v>0.9830216011760804</v>
+        <v>0.9824537842696741</v>
       </c>
       <c r="E14">
-        <v>0.9988258233126601</v>
+        <v>0.9982694555257735</v>
       </c>
       <c r="F14">
-        <v>0.9813336910516611</v>
+        <v>0.9811836653064117</v>
       </c>
       <c r="G14">
-        <v>0.9971719975772196</v>
+        <v>0.9970250086994198</v>
       </c>
       <c r="H14">
-        <v>0.9598527243016788</v>
+        <v>0.9595250611401386</v>
       </c>
       <c r="I14">
-        <v>0.9761384711561933</v>
+        <v>0.9758178356310075</v>
       </c>
       <c r="J14">
-        <v>0.9627075736315178</v>
+        <v>0.9624097720226737</v>
       </c>
       <c r="K14">
-        <v>0.9789323544025351</v>
+        <v>0.978640890387553</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9803232602820859</v>
+        <v>0.9800313821434815</v>
       </c>
       <c r="N14">
-        <v>0.9803232602820859</v>
+        <v>0.9800313821434815</v>
       </c>
       <c r="O14">
-        <v>1.003041025648311</v>
+        <v>1.002625522657964</v>
       </c>
       <c r="P14">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>1.018109719462031</v>
+      </c>
+      <c r="R14">
         <v>1</v>
       </c>
-      <c r="Q14">
-        <v>1.020470014169473</v>
-      </c>
-      <c r="R14">
-        <v>0.9999999999999998</v>
-      </c>
       <c r="S14">
-        <v>12.06419874034491</v>
+        <v>11.37886313103671</v>
       </c>
       <c r="T14">
-        <v>8.118299618984592</v>
+        <v>7.430683738619339</v>
       </c>
       <c r="U14">
-        <v>-2.523676433635831</v>
+        <v>-3.165336714786064</v>
       </c>
       <c r="V14">
-        <v>1.132718010517648</v>
+        <v>0.4952156312741545</v>
       </c>
       <c r="W14">
-        <v>-0.4871542731105843</v>
+        <v>-2.37058775819299</v>
       </c>
       <c r="X14">
-        <v>3.181620745674145</v>
+        <v>1.29929069672289</v>
       </c>
       <c r="Y14">
-        <v>-6.593486681437597</v>
+        <v>-7.172112715828822</v>
       </c>
       <c r="Z14">
-        <v>-2.761545580763263</v>
+        <v>-3.337599691796553</v>
       </c>
       <c r="AA14">
-        <v>-5.556452308881665</v>
+        <v>-6.321324914424353</v>
       </c>
       <c r="AB14">
-        <v>-1.74681152934798</v>
+        <v>-2.509366927844818</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>-1.759652039834985</v>
+        <v>-2.522207438331821</v>
       </c>
       <c r="AE14">
-        <v>-1.759652039834985</v>
+        <v>-2.522207438331821</v>
       </c>
       <c r="AF14">
-        <v>8.258103232416032</v>
+        <v>4.608746687255014</v>
       </c>
       <c r="AG14">
-        <v>12.23387333817859</v>
+        <v>7.207171030867642</v>
       </c>
       <c r="AH14">
-        <v>4.952360633180595</v>
+        <v>4.206417517158641</v>
       </c>
       <c r="AI14">
-        <v>5.171706675309709</v>
+        <v>5.305755055135524</v>
       </c>
       <c r="AJ14">
-        <v>46.56556628449585</v>
+        <v>46.2404252492686</v>
       </c>
       <c r="AK14">
-        <v>38.3412312711453</v>
+        <v>39.67031262524709</v>
       </c>
       <c r="AL14">
-        <v>2.020889165029276</v>
+        <v>2.020287472310197</v>
       </c>
       <c r="AM14">
-        <v>28.02346292669256</v>
+        <v>22.19570516714563</v>
       </c>
       <c r="AN14">
-        <v>8.939897780818214</v>
+        <v>7.440389809703871</v>
       </c>
       <c r="AO14">
-        <v>17.86545674050137</v>
+        <v>20.63406758305142</v>
       </c>
       <c r="AP14">
-        <v>45.16830477169275</v>
+        <v>29.53872812146359</v>
       </c>
       <c r="AQ14">
-        <v>23.09267847524305</v>
+        <v>22.27514255123263</v>
       </c>
       <c r="AR14">
-        <v>5.891748957631721</v>
+        <v>4.577723913647557</v>
       </c>
       <c r="AS14">
-        <v>19.36435637896431</v>
+        <v>19.87431892828844</v>
       </c>
       <c r="AT14">
-        <v>10.97404103337911</v>
+        <v>14.09014649139721</v>
       </c>
       <c r="AU14">
-        <v>6.31289294334448</v>
+        <v>6.223275171303328</v>
       </c>
       <c r="AV14">
-        <v>2.137061482222265</v>
+        <v>2.290951519002022</v>
       </c>
       <c r="AW14">
-        <v>0.0007514642777733128</v>
+        <v>0.000751016867532211</v>
       </c>
       <c r="AX14">
-        <v>1.279783908417258</v>
+        <v>0.7877632440746112</v>
       </c>
       <c r="AY14">
-        <v>0.162206862934255</v>
+        <v>0.1094569177565248</v>
       </c>
       <c r="AZ14">
-        <v>0.4807636450883592</v>
+        <v>0.6601733179362412</v>
       </c>
       <c r="BA14">
-        <v>2.112019103734212</v>
+        <v>0.9019216623985784</v>
       </c>
       <c r="BB14">
-        <v>0.8468851719256065</v>
+        <v>0.7891784372045549</v>
       </c>
       <c r="BC14">
-        <v>0.08104752737059684</v>
+        <v>0.01604806542805015</v>
       </c>
       <c r="BD14">
-        <v>1.180970231642476</v>
+        <v>1.23946331102573</v>
       </c>
       <c r="BE14">
-        <v>0.3766146426958414</v>
+        <v>0.7601839683414511</v>
       </c>
       <c r="BF14">
-        <v>72.88018166710117</v>
+        <v>73.00169800541937</v>
       </c>
       <c r="BG14">
-        <v>65.16953930245974</v>
+        <v>65.20720455123903</v>
       </c>
       <c r="BH14">
-        <v>65.28163198428189</v>
+        <v>65.29161372963281</v>
       </c>
       <c r="BI14">
-        <v>66.74259837061913</v>
+        <v>66.76538994915859</v>
       </c>
       <c r="BJ14">
-        <v>66.54467735342867</v>
+        <v>66.56526849095857</v>
       </c>
       <c r="BK14">
         <v>0</v>
       </c>
       <c r="BL14">
-        <v>69.54828241840003</v>
+        <v>45.48250849917605</v>
       </c>
       <c r="BM14">
-        <v>20.83212499764121</v>
+        <v>26.50963350888564</v>
       </c>
     </row>
     <row r="15" spans="1:65">
@@ -3332,193 +3332,193 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037860864971457</v>
+        <v>1.037234409670901</v>
       </c>
       <c r="D15">
-        <v>0.9826023692021399</v>
+        <v>0.9818866919455486</v>
       </c>
       <c r="E15">
-        <v>0.9984589396817183</v>
+        <v>0.9977578066163392</v>
       </c>
       <c r="F15">
-        <v>0.9809236626859704</v>
+        <v>0.9807138862187207</v>
       </c>
       <c r="G15">
-        <v>0.9968143918943929</v>
+        <v>0.9966088947082602</v>
       </c>
       <c r="H15">
-        <v>0.9592720533042121</v>
+        <v>0.958856098891964</v>
       </c>
       <c r="I15">
-        <v>0.9756173950050422</v>
+        <v>0.9752104376564066</v>
       </c>
       <c r="J15">
-        <v>0.9621116230949414</v>
+        <v>0.961666988892628</v>
       </c>
       <c r="K15">
-        <v>0.9783958171385224</v>
+        <v>0.9779607265294212</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9797859606846682</v>
+        <v>0.9793502518815891</v>
       </c>
       <c r="N15">
-        <v>0.9797859606846682</v>
+        <v>0.9793502518815891</v>
       </c>
       <c r="O15">
-        <v>1.002883432329346</v>
+        <v>1.002442323469843</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q15">
-        <v>1.020264648607079</v>
+        <v>1.018028427280337</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S15">
-        <v>11.92988704668253</v>
+        <v>11.54808070796656</v>
       </c>
       <c r="T15">
-        <v>7.983507030277346</v>
+        <v>7.599313428720692</v>
       </c>
       <c r="U15">
-        <v>-2.701322155085545</v>
+        <v>-3.117287480968534</v>
       </c>
       <c r="V15">
-        <v>0.9973178934311925</v>
+        <v>0.5866567776829118</v>
       </c>
       <c r="W15">
-        <v>-0.6997713079903892</v>
+        <v>-2.266011261394589</v>
       </c>
       <c r="X15">
-        <v>3.011328289746078</v>
+        <v>1.446649711817365</v>
       </c>
       <c r="Y15">
-        <v>-6.77670091850631</v>
+        <v>-7.19543494371856</v>
       </c>
       <c r="Z15">
-        <v>-2.899139779271457</v>
+        <v>-3.314567836324055</v>
       </c>
       <c r="AA15">
-        <v>-5.762217103925907</v>
+        <v>-6.315184161859764</v>
       </c>
       <c r="AB15">
-        <v>-1.907113065760945</v>
+        <v>-2.456576477837207</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>-1.919953576247948</v>
+        <v>-2.469416988324211</v>
       </c>
       <c r="AE15">
-        <v>-1.919953576247948</v>
+        <v>-2.469416988324211</v>
       </c>
       <c r="AF15">
-        <v>8.08863164072682</v>
+        <v>4.755998546903575</v>
       </c>
       <c r="AG15">
-        <v>12.06502750476567</v>
+        <v>7.354898085876655</v>
       </c>
       <c r="AH15">
-        <v>4.816449180055564</v>
+        <v>4.457015268239333</v>
       </c>
       <c r="AI15">
-        <v>5.105475688612083</v>
+        <v>5.905470353513734</v>
       </c>
       <c r="AJ15">
-        <v>46.58831763712411</v>
+        <v>46.72659462311716</v>
       </c>
       <c r="AK15">
-        <v>38.65477860668828</v>
+        <v>40.13398844818881</v>
       </c>
       <c r="AL15">
-        <v>2.019781547798571</v>
+        <v>2.018883355095335</v>
       </c>
       <c r="AM15">
-        <v>27.97542963205776</v>
+        <v>22.70068103794659</v>
       </c>
       <c r="AN15">
-        <v>8.748087095397022</v>
+        <v>7.659229382978405</v>
       </c>
       <c r="AO15">
-        <v>18.5882320095592</v>
+        <v>20.61312382161555</v>
       </c>
       <c r="AP15">
-        <v>45.16749609819188</v>
+        <v>29.53479220635956</v>
       </c>
       <c r="AQ15">
-        <v>23.10496498178272</v>
+        <v>23.14896006384221</v>
       </c>
       <c r="AR15">
-        <v>5.600811043043838</v>
+        <v>4.823161007001045</v>
       </c>
       <c r="AS15">
-        <v>19.37765485707403</v>
+        <v>19.44100238868719</v>
       </c>
       <c r="AT15">
-        <v>11.08993920339202</v>
+        <v>14.48524513249703</v>
       </c>
       <c r="AU15">
-        <v>6.318132857618252</v>
+        <v>6.35629487041308</v>
       </c>
       <c r="AV15">
-        <v>2.172389772998571</v>
+        <v>2.345292595200874</v>
       </c>
       <c r="AW15">
-        <v>0.0007506407723308109</v>
+        <v>0.0007499733038444602</v>
       </c>
       <c r="AX15">
-        <v>1.274839033380886</v>
+        <v>0.8252790381684605</v>
       </c>
       <c r="AY15">
-        <v>0.1550019958834525</v>
+        <v>0.1167935265915219</v>
       </c>
       <c r="AZ15">
-        <v>0.5240356085735129</v>
+        <v>0.6571558052826276</v>
       </c>
       <c r="BA15">
-        <v>2.112253922597858</v>
+        <v>0.9020414238947154</v>
       </c>
       <c r="BB15">
-        <v>0.8474330480124195</v>
+        <v>0.8549095803514177</v>
       </c>
       <c r="BC15">
-        <v>0.06307714105709294</v>
+        <v>0.02268119406945956</v>
       </c>
       <c r="BD15">
-        <v>1.182310343415566</v>
+        <v>1.182304498641997</v>
       </c>
       <c r="BE15">
-        <v>0.3877178029314479</v>
+        <v>0.8103253942451687</v>
       </c>
       <c r="BF15">
-        <v>72.90542627132884</v>
+        <v>73.03376964230105</v>
       </c>
       <c r="BG15">
-        <v>65.86615355513469</v>
+        <v>65.91416205597818</v>
       </c>
       <c r="BH15">
-        <v>65.97887378543807</v>
+        <v>65.99298678541732</v>
       </c>
       <c r="BI15">
-        <v>67.46807468285812</v>
+        <v>67.49734251917133</v>
       </c>
       <c r="BJ15">
-        <v>67.26894985980299</v>
+        <v>67.30005218129978</v>
       </c>
       <c r="BK15">
         <v>0</v>
       </c>
       <c r="BL15">
-        <v>69.54703725648157</v>
+        <v>45.47644814033337</v>
       </c>
       <c r="BM15">
-        <v>20.8954113137605</v>
+        <v>31.23468410250033</v>
       </c>
     </row>
     <row r="16" spans="1:65">
@@ -3529,193 +3529,193 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038097466519105</v>
+        <v>1.037423787471891</v>
       </c>
       <c r="D16">
-        <v>0.9833635215394457</v>
+        <v>0.9825081275093706</v>
       </c>
       <c r="E16">
-        <v>0.9991201789756058</v>
+        <v>0.9982819185111482</v>
       </c>
       <c r="F16">
-        <v>0.981702396920104</v>
+        <v>0.9814137586977907</v>
       </c>
       <c r="G16">
-        <v>0.9974923620281819</v>
+        <v>0.9972095262357712</v>
       </c>
       <c r="H16">
-        <v>0.9603598735956318</v>
+        <v>0.9598791921444075</v>
       </c>
       <c r="I16">
-        <v>0.9765911209581787</v>
+        <v>0.9761206722107929</v>
       </c>
       <c r="J16">
-        <v>0.963212709111153</v>
+        <v>0.9626405048447064</v>
       </c>
       <c r="K16">
-        <v>0.9793834987771088</v>
+        <v>0.9788233833937049</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9807750456604636</v>
+        <v>0.9802141344429284</v>
       </c>
       <c r="N16">
-        <v>0.9807750456604636</v>
+        <v>0.9802141344429284</v>
       </c>
       <c r="O16">
-        <v>1.003182206985293</v>
+        <v>1.002706758738324</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q16">
-        <v>1.020709462503448</v>
+        <v>1.018485508594313</v>
       </c>
       <c r="R16">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S16">
-        <v>12.28414162241102</v>
+        <v>12.16265296986994</v>
       </c>
       <c r="T16">
-        <v>8.338662483330484</v>
+        <v>8.214607666338107</v>
       </c>
       <c r="U16">
-        <v>-2.287209647229816</v>
+        <v>-2.509633141725281</v>
       </c>
       <c r="V16">
-        <v>1.32997027184188</v>
+        <v>1.113744235504541</v>
       </c>
       <c r="W16">
-        <v>-0.1892480240774361</v>
+        <v>-1.481521269057946</v>
       </c>
       <c r="X16">
-        <v>3.439981463522243</v>
+        <v>2.14980805395707</v>
       </c>
       <c r="Y16">
-        <v>-6.372285653711329</v>
+        <v>-6.653585675671306</v>
       </c>
       <c r="Z16">
-        <v>-2.582773453547173</v>
+        <v>-2.860343042811615</v>
       </c>
       <c r="AA16">
-        <v>-5.297952841851983</v>
+        <v>-5.668787433904395</v>
       </c>
       <c r="AB16">
-        <v>-1.530468737989125</v>
+        <v>-1.896900375215423</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>-1.543309248476128</v>
+        <v>-1.90974088570243</v>
       </c>
       <c r="AE16">
-        <v>-1.543309248476128</v>
+        <v>-1.90974088570243</v>
       </c>
       <c r="AF16">
-        <v>8.51572928634725</v>
+        <v>5.45931160318037</v>
       </c>
       <c r="AG16">
-        <v>12.49093896851141</v>
+        <v>8.057525286374895</v>
       </c>
       <c r="AH16">
-        <v>5.199405438503566</v>
+        <v>5.171323908673316</v>
       </c>
       <c r="AI16">
-        <v>5.54743397210451</v>
+        <v>6.915524993899391</v>
       </c>
       <c r="AJ16">
-        <v>46.68847308705331</v>
+        <v>47.22301292015398</v>
       </c>
       <c r="AK16">
-        <v>38.09403154207169</v>
+        <v>39.69722816717023</v>
       </c>
       <c r="AL16">
-        <v>2.021820498817972</v>
+        <v>2.020664207370114</v>
       </c>
       <c r="AM16">
-        <v>28.24377314322495</v>
+        <v>23.42608732904867</v>
       </c>
       <c r="AN16">
-        <v>9.25373161540916</v>
+        <v>8.50754523981022</v>
       </c>
       <c r="AO16">
-        <v>16.97212353195106</v>
+        <v>18.32483274068194</v>
       </c>
       <c r="AP16">
-        <v>45.16922711191872</v>
+        <v>29.54062693409286</v>
       </c>
       <c r="AQ16">
-        <v>23.34870593188897</v>
+        <v>24.12955540168362</v>
       </c>
       <c r="AR16">
-        <v>6.381128918106069</v>
+        <v>5.912570076442393</v>
       </c>
       <c r="AS16">
-        <v>19.21165843589558</v>
+        <v>18.90211968205654</v>
       </c>
       <c r="AT16">
-        <v>10.93159490100842</v>
+        <v>14.51086191215197</v>
       </c>
       <c r="AU16">
-        <v>6.347847710061558</v>
+        <v>6.496677927056851</v>
       </c>
       <c r="AV16">
-        <v>2.109463983423836</v>
+        <v>2.294485272345355</v>
       </c>
       <c r="AW16">
-        <v>0.0007521570671800826</v>
+        <v>0.0007512969868286766</v>
       </c>
       <c r="AX16">
-        <v>1.300887853738828</v>
+        <v>0.8822105405101439</v>
       </c>
       <c r="AY16">
-        <v>0.1742826130622461</v>
+        <v>0.1463465575792569</v>
       </c>
       <c r="AZ16">
-        <v>0.4291601803219223</v>
+        <v>0.5088809584070972</v>
       </c>
       <c r="BA16">
-        <v>2.111827237911626</v>
+        <v>0.9018779512861244</v>
       </c>
       <c r="BB16">
-        <v>0.8670323122308048</v>
+        <v>0.9330673534742431</v>
       </c>
       <c r="BC16">
-        <v>0.11153099245589</v>
+        <v>0.07864756905425807</v>
       </c>
       <c r="BD16">
-        <v>1.161728714360095</v>
+        <v>1.113838393883299</v>
       </c>
       <c r="BE16">
-        <v>0.3727330131247797</v>
+        <v>0.8147053861561204</v>
       </c>
       <c r="BF16">
-        <v>72.85830246971794</v>
+        <v>72.99442544715727</v>
       </c>
       <c r="BG16">
-        <v>64.51998494460972</v>
+        <v>64.57615751804384</v>
       </c>
       <c r="BH16">
-        <v>64.6291582905924</v>
+        <v>64.64816601816227</v>
       </c>
       <c r="BI16">
-        <v>66.0654420798074</v>
+        <v>66.09852586038582</v>
       </c>
       <c r="BJ16">
-        <v>65.86976999436769</v>
+        <v>65.90892372125833</v>
       </c>
       <c r="BK16">
         <v>0</v>
       </c>
       <c r="BL16">
-        <v>69.54970259962782</v>
+        <v>45.48543221211295</v>
       </c>
       <c r="BM16">
-        <v>21.59958945327957</v>
+        <v>35.85373785377781</v>
       </c>
     </row>
     <row r="17" spans="1:65">
@@ -3726,193 +3726,193 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038331957650049</v>
+        <v>1.037611938985073</v>
       </c>
       <c r="D17">
-        <v>0.9841207948225259</v>
+        <v>0.983141625831999</v>
       </c>
       <c r="E17">
-        <v>0.9997772713946784</v>
+        <v>0.9988174280158667</v>
       </c>
       <c r="F17">
-        <v>0.9824820259276428</v>
+        <v>0.9821185802114631</v>
       </c>
       <c r="G17">
-        <v>0.9981708743406791</v>
+        <v>0.9978146268314025</v>
       </c>
       <c r="H17">
-        <v>0.9614416311645556</v>
+        <v>0.9608923822777101</v>
       </c>
       <c r="I17">
-        <v>0.977558769721103</v>
+        <v>0.977021025657544</v>
       </c>
       <c r="J17">
-        <v>0.9643126572992767</v>
+        <v>0.9636260805787518</v>
       </c>
       <c r="K17">
-        <v>0.9803699332814031</v>
+        <v>0.9796976301971257</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9817628817299894</v>
+        <v>0.9810896234108499</v>
       </c>
       <c r="N17">
-        <v>0.9817628817299894</v>
+        <v>0.9810896234108499</v>
       </c>
       <c r="O17">
-        <v>1.003481219997804</v>
+        <v>1.002973161675008</v>
       </c>
       <c r="P17">
         <v>0.9999999999999999</v>
       </c>
       <c r="Q17">
-        <v>1.021147057064594</v>
+        <v>1.018901412331553</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17">
-        <v>12.63985221030506</v>
+        <v>12.70627712590051</v>
       </c>
       <c r="T17">
-        <v>8.695265506939696</v>
+        <v>8.758948861428959</v>
       </c>
       <c r="U17">
-        <v>-1.868069961493058</v>
+        <v>-1.950984593592891</v>
       </c>
       <c r="V17">
-        <v>1.665579206615963</v>
+        <v>1.589591903747439</v>
       </c>
       <c r="W17">
-        <v>0.3263519929824314</v>
+        <v>-0.7679909480240853</v>
       </c>
       <c r="X17">
-        <v>3.871606369439469</v>
+        <v>2.779844917392355</v>
       </c>
       <c r="Y17">
-        <v>-5.96158088820592</v>
+        <v>-6.143931198708615</v>
       </c>
       <c r="Z17">
-        <v>-2.262142958334616</v>
+        <v>-2.440335567199756</v>
       </c>
       <c r="AA17">
-        <v>-4.82723546765251</v>
+        <v>-5.066823078032217</v>
       </c>
       <c r="AB17">
-        <v>-1.149417957655649</v>
+        <v>-1.383852408421035</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>-1.162258468142654</v>
+        <v>-1.396692918908041</v>
       </c>
       <c r="AE17">
-        <v>-1.162258468142654</v>
+        <v>-1.396692918908041</v>
       </c>
       <c r="AF17">
-        <v>8.945800447054829</v>
+        <v>6.089504612791315</v>
       </c>
       <c r="AG17">
-        <v>12.91982370992741</v>
+        <v>8.687027702817215</v>
       </c>
       <c r="AH17">
-        <v>5.582146435832846</v>
+        <v>5.793185294715832</v>
       </c>
       <c r="AI17">
-        <v>5.972669730521203</v>
+        <v>7.750470819119526</v>
       </c>
       <c r="AJ17">
-        <v>46.78072128524058</v>
+        <v>47.60335812909028</v>
       </c>
       <c r="AK17">
-        <v>37.51517019301743</v>
+        <v>39.20787696342532</v>
       </c>
       <c r="AL17">
-        <v>2.023856875277209</v>
+        <v>2.02246898569293</v>
       </c>
       <c r="AM17">
-        <v>28.50628474730044</v>
+        <v>24.01964622165568</v>
       </c>
       <c r="AN17">
-        <v>9.782238396971055</v>
+        <v>9.293280903736873</v>
       </c>
       <c r="AO17">
-        <v>15.36994757462802</v>
+        <v>16.25570755785431</v>
       </c>
       <c r="AP17">
-        <v>45.17179799042903</v>
+        <v>29.54751536277268</v>
       </c>
       <c r="AQ17">
-        <v>23.57711143017743</v>
+        <v>24.89426172074474</v>
       </c>
       <c r="AR17">
-        <v>7.268355112091447</v>
+        <v>7.142592190203505</v>
       </c>
       <c r="AS17">
-        <v>19.05480733721502</v>
+        <v>18.47923154685478</v>
       </c>
       <c r="AT17">
-        <v>10.76463799225312</v>
+        <v>14.46378724773517</v>
       </c>
       <c r="AU17">
-        <v>6.37540962800847</v>
+        <v>6.605625962411068</v>
       </c>
       <c r="AV17">
-        <v>2.045460992436603</v>
+        <v>2.238139642843407</v>
       </c>
       <c r="AW17">
-        <v>0.0007536729746440632</v>
+        <v>0.0007526396444265338</v>
       </c>
       <c r="AX17">
-        <v>1.326613448011031</v>
+        <v>0.9302198541839033</v>
       </c>
       <c r="AY17">
-        <v>0.1948201806410168</v>
+        <v>0.175433239387111</v>
       </c>
       <c r="AZ17">
-        <v>0.3435948266547868</v>
+        <v>0.3898489287988482</v>
       </c>
       <c r="BA17">
-        <v>2.111478601975733</v>
+        <v>0.9017751092805213</v>
       </c>
       <c r="BB17">
-        <v>0.8856183090478282</v>
+        <v>0.9963916166493334</v>
       </c>
       <c r="BC17">
-        <v>0.1747906393425396</v>
+        <v>0.1593339363092809</v>
       </c>
       <c r="BD17">
-        <v>1.142481219015309</v>
+        <v>1.061541899611157</v>
       </c>
       <c r="BE17">
-        <v>0.3571370852240747</v>
+        <v>0.8096279279902632</v>
       </c>
       <c r="BF17">
-        <v>72.81233114323307</v>
+        <v>72.95580418144674</v>
       </c>
       <c r="BG17">
-        <v>63.13767109051869</v>
+        <v>63.20055363769352</v>
       </c>
       <c r="BH17">
-        <v>63.2429840110078</v>
+        <v>63.26638789734128</v>
       </c>
       <c r="BI17">
-        <v>64.62700703066366</v>
+        <v>64.66394801627921</v>
       </c>
       <c r="BJ17">
-        <v>64.43459451301248</v>
+        <v>64.4805037027706</v>
       </c>
       <c r="BK17">
         <v>0</v>
       </c>
       <c r="BL17">
-        <v>69.55366113173581</v>
+        <v>45.4960387289097</v>
       </c>
       <c r="BM17">
-        <v>22.24043593418729</v>
+        <v>39.32155240596079</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -3923,193 +3923,193 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038377721980278</v>
+        <v>1.037620330520792</v>
       </c>
       <c r="D18">
-        <v>0.9842651820612887</v>
+        <v>0.9831681798524593</v>
       </c>
       <c r="E18">
-        <v>0.9999015204516004</v>
+        <v>0.9988261074034217</v>
       </c>
       <c r="F18">
-        <v>0.982637394573753</v>
+        <v>0.9822067804604016</v>
       </c>
       <c r="G18">
-        <v>0.9983057902336619</v>
+        <v>0.9978836793163541</v>
       </c>
       <c r="H18">
-        <v>0.9616538409762241</v>
+        <v>0.9610254088139082</v>
       </c>
       <c r="I18">
-        <v>0.9777480132129595</v>
+        <v>0.9771327024613001</v>
       </c>
       <c r="J18">
-        <v>0.9645265053397409</v>
+        <v>0.9637244838995488</v>
       </c>
       <c r="K18">
-        <v>0.9805609780629678</v>
+        <v>0.979775578017838</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9819541979555501</v>
+        <v>0.9811676819829144</v>
       </c>
       <c r="N18">
-        <v>0.9819541979555501</v>
+        <v>0.9811676819829144</v>
       </c>
       <c r="O18">
-        <v>1.003540675899103</v>
+        <v>1.003003562882747</v>
       </c>
       <c r="P18">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>1.021242062615779</v>
+        <v>1.019005274895471</v>
       </c>
       <c r="R18">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>12.72732531267617</v>
+        <v>12.9608289216086</v>
       </c>
       <c r="T18">
-        <v>8.782912733907038</v>
+        <v>9.013532630924219</v>
       </c>
       <c r="U18">
-        <v>-1.771229266893573</v>
+        <v>-1.730310875891564</v>
       </c>
       <c r="V18">
-        <v>1.745312606151516</v>
+        <v>1.793954831223658</v>
       </c>
       <c r="W18">
-        <v>0.4473842219514256</v>
+        <v>-0.4721263292116692</v>
       </c>
       <c r="X18">
-        <v>3.975396183812226</v>
+        <v>3.058929243333643</v>
       </c>
       <c r="Y18">
-        <v>-5.869614261227705</v>
+        <v>-5.96442031593561</v>
       </c>
       <c r="Z18">
-        <v>-2.188616635897497</v>
+        <v>-2.278689613676788</v>
       </c>
       <c r="AA18">
-        <v>-4.720471270377363</v>
+        <v>-4.843855468541115</v>
       </c>
       <c r="AB18">
-        <v>-1.060994514350134</v>
+        <v>-1.178389169091257</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>-1.073835024837139</v>
+        <v>-1.191229679578262</v>
       </c>
       <c r="AE18">
-        <v>-1.073835024837139</v>
+        <v>-1.191229679578262</v>
       </c>
       <c r="AF18">
-        <v>9.049281673882463</v>
+        <v>6.368606775604034</v>
       </c>
       <c r="AG18">
-        <v>13.02306911300325</v>
+        <v>8.966051080284895</v>
       </c>
       <c r="AH18">
-        <v>5.679046451337115</v>
+        <v>6.102704438231356</v>
       </c>
       <c r="AI18">
-        <v>6.107685120605858</v>
+        <v>8.251085600927627</v>
       </c>
       <c r="AJ18">
-        <v>46.8218849139277</v>
+        <v>47.90209981513304</v>
       </c>
       <c r="AK18">
-        <v>37.40331863988563</v>
+        <v>39.17848473896902</v>
       </c>
       <c r="AL18">
-        <v>2.024251264457929</v>
+        <v>2.022629899677868</v>
       </c>
       <c r="AM18">
-        <v>28.58721398503932</v>
+        <v>24.40353633030955</v>
       </c>
       <c r="AN18">
-        <v>9.912189824554781</v>
+        <v>9.67065314116182</v>
       </c>
       <c r="AO18">
-        <v>15.01466753289374</v>
+        <v>15.52344136111607</v>
       </c>
       <c r="AP18">
-        <v>45.1724091511518</v>
+        <v>29.54836588350093</v>
       </c>
       <c r="AQ18">
-        <v>23.66506054353417</v>
+        <v>25.46137347105822</v>
       </c>
       <c r="AR18">
-        <v>7.492901559586254</v>
+        <v>7.737310740998421</v>
       </c>
       <c r="AS18">
-        <v>19.00140644524609</v>
+        <v>18.18703976597526</v>
       </c>
       <c r="AT18">
-        <v>10.74033187077189</v>
+        <v>14.57455821645648</v>
       </c>
       <c r="AU18">
-        <v>6.387234073590719</v>
+        <v>6.690584349556104</v>
       </c>
       <c r="AV18">
-        <v>2.03321480422079</v>
+        <v>2.234886679117977</v>
       </c>
       <c r="AW18">
-        <v>0.0007539667398404892</v>
+        <v>0.0007527594139824511</v>
       </c>
       <c r="AX18">
-        <v>1.334496123695246</v>
+        <v>0.9614875906459446</v>
       </c>
       <c r="AY18">
-        <v>0.2000404734993282</v>
+        <v>0.18990814005776</v>
       </c>
       <c r="AZ18">
-        <v>0.3256958745397753</v>
+        <v>0.3505436515136182</v>
       </c>
       <c r="BA18">
-        <v>2.111418625849353</v>
+        <v>0.9017673194075257</v>
       </c>
       <c r="BB18">
-        <v>0.892681511846618</v>
+        <v>1.044138205691652</v>
       </c>
       <c r="BC18">
-        <v>0.1919393636971805</v>
+        <v>0.2028512240640907</v>
       </c>
       <c r="BD18">
-        <v>1.135864760010023</v>
+        <v>1.025785125750517</v>
       </c>
       <c r="BE18">
-        <v>0.3549168211304377</v>
+        <v>0.8243044751502566</v>
       </c>
       <c r="BF18">
-        <v>72.80344429868488</v>
+        <v>72.9540925594644</v>
       </c>
       <c r="BG18">
-        <v>62.85390917633553</v>
+        <v>62.92404049121428</v>
       </c>
       <c r="BH18">
-        <v>62.95802978833841</v>
+        <v>62.98563152833351</v>
       </c>
       <c r="BI18">
-        <v>64.33179146449139</v>
+        <v>64.37385920426689</v>
       </c>
       <c r="BJ18">
-        <v>64.14019108465932</v>
+        <v>64.19356921221265</v>
       </c>
       <c r="BK18">
         <v>0</v>
       </c>
       <c r="BL18">
-        <v>69.55460217166993</v>
+        <v>45.49734832545332</v>
       </c>
       <c r="BM18">
-        <v>22.54731742803297</v>
+        <v>42.35242530824516</v>
       </c>
     </row>
     <row r="19" spans="1:65">
@@ -4120,193 +4120,193 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038398850499769</v>
+        <v>1.037608880981512</v>
       </c>
       <c r="D19">
-        <v>0.9843302972293839</v>
+        <v>0.9831310199274417</v>
       </c>
       <c r="E19">
-        <v>0.9999570937215051</v>
+        <v>0.9987813875920956</v>
       </c>
       <c r="F19">
-        <v>0.9827103625631544</v>
+        <v>0.9822203284490246</v>
       </c>
       <c r="G19">
-        <v>0.9983690154856297</v>
+        <v>0.9978886445354356</v>
       </c>
       <c r="H19">
-        <v>0.9617523096447328</v>
+        <v>0.9610524323970033</v>
       </c>
       <c r="I19">
-        <v>0.9778355772583285</v>
+        <v>0.9771502915948093</v>
       </c>
       <c r="J19">
-        <v>0.964624705653285</v>
+        <v>0.9637215491607339</v>
       </c>
       <c r="K19">
-        <v>0.9806483729085606</v>
+        <v>0.9797639070053691</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9820417169752026</v>
+        <v>0.9811559943878082</v>
       </c>
       <c r="N19">
-        <v>0.9820417169752026</v>
+        <v>0.9811559943878082</v>
       </c>
       <c r="O19">
-        <v>1.003568538541546</v>
+        <v>1.003005748881709</v>
       </c>
       <c r="P19">
         <v>0.9999999999999999</v>
       </c>
       <c r="Q19">
-        <v>1.021290277479852</v>
+        <v>1.019058843361216</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S19">
-        <v>12.77561422031824</v>
+        <v>13.14663289649041</v>
       </c>
       <c r="T19">
-        <v>8.831282026367267</v>
+        <v>9.199292980154441</v>
       </c>
       <c r="U19">
-        <v>-1.720085586202034</v>
+        <v>-1.577331500768736</v>
       </c>
       <c r="V19">
-        <v>1.788285332373965</v>
+        <v>1.939464575795692</v>
       </c>
       <c r="W19">
-        <v>0.5120611892681182</v>
+        <v>-0.263737587738178</v>
       </c>
       <c r="X19">
-        <v>4.031819605087746</v>
+        <v>3.259476418143127</v>
       </c>
       <c r="Y19">
-        <v>-5.822194976092692</v>
+        <v>-5.845080908488254</v>
       </c>
       <c r="Z19">
-        <v>-2.150009649874215</v>
+        <v>-2.16763691329421</v>
       </c>
       <c r="AA19">
-        <v>-4.664865949181557</v>
+        <v>-4.692749670429077</v>
       </c>
       <c r="AB19">
-        <v>-1.014146129487119</v>
+        <v>-1.035300709832173</v>
       </c>
       <c r="AC19">
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>-1.026986639974126</v>
+        <v>-1.048141220319178</v>
       </c>
       <c r="AE19">
-        <v>-1.026986639974126</v>
+        <v>-1.048141220319178</v>
       </c>
       <c r="AF19">
-        <v>9.105560523741518</v>
+        <v>6.5691552331148</v>
       </c>
       <c r="AG19">
-        <v>13.07923745911665</v>
+        <v>9.166593872919357</v>
       </c>
       <c r="AH19">
-        <v>5.733583368547617</v>
+        <v>6.332225277227235</v>
       </c>
       <c r="AI19">
-        <v>6.193619511511066</v>
+        <v>8.638040291593487</v>
       </c>
       <c r="AJ19">
-        <v>46.85143374582591</v>
+        <v>48.14410198756169</v>
       </c>
       <c r="AK19">
-        <v>37.3528913796583</v>
+        <v>39.19640488909972</v>
       </c>
       <c r="AL19">
-        <v>2.024431680699916</v>
+        <v>2.022605806263506</v>
       </c>
       <c r="AM19">
-        <v>28.63792373696284</v>
+        <v>24.70477443443954</v>
       </c>
       <c r="AN19">
-        <v>9.983921506830534</v>
+        <v>9.945961038330543</v>
       </c>
       <c r="AO19">
-        <v>14.83152411629666</v>
+        <v>15.04203949342475</v>
       </c>
       <c r="AP19">
-        <v>45.17270696790151</v>
+        <v>29.54842754872377</v>
       </c>
       <c r="AQ19">
-        <v>23.72542913409327</v>
+        <v>25.91680845233551</v>
       </c>
       <c r="AR19">
-        <v>7.616295369274856</v>
+        <v>8.175204889610457</v>
       </c>
       <c r="AS19">
-        <v>18.96635403186492</v>
+        <v>17.95602314134939</v>
       </c>
       <c r="AT19">
-        <v>10.73307554685748</v>
+        <v>14.68165355035978</v>
       </c>
       <c r="AU19">
-        <v>6.395630692135967</v>
+        <v>6.759644250623467</v>
       </c>
       <c r="AV19">
-        <v>2.027709586300432</v>
+        <v>2.237037310240453</v>
       </c>
       <c r="AW19">
-        <v>0.0007541011440335666</v>
+        <v>0.0007527414803985226</v>
       </c>
       <c r="AX19">
-        <v>1.339419674471102</v>
+        <v>0.9863069099955339</v>
       </c>
       <c r="AY19">
-        <v>0.2029488978946716</v>
+        <v>0.2008297124100551</v>
       </c>
       <c r="AZ19">
-        <v>0.3166040841941822</v>
+        <v>0.3255075725741818</v>
       </c>
       <c r="BA19">
-        <v>2.111391586369052</v>
+        <v>0.9017667904305142</v>
       </c>
       <c r="BB19">
-        <v>0.8975124527676144</v>
+        <v>1.083197432670261</v>
       </c>
       <c r="BC19">
-        <v>0.2015162033315221</v>
+        <v>0.2370529250810449</v>
       </c>
       <c r="BD19">
-        <v>1.13150545900443</v>
+        <v>0.9978601352615755</v>
       </c>
       <c r="BE19">
-        <v>0.3542743706320692</v>
+        <v>0.8385000408780314</v>
       </c>
       <c r="BF19">
-        <v>72.7993507997214</v>
+        <v>72.95642815372604</v>
       </c>
       <c r="BG19">
-        <v>62.71815650780839</v>
+        <v>62.79466356535707</v>
       </c>
       <c r="BH19">
-        <v>62.82154334466241</v>
+        <v>62.85288529356067</v>
       </c>
       <c r="BI19">
-        <v>64.19052080032415</v>
+        <v>64.23726693353564</v>
       </c>
       <c r="BJ19">
-        <v>63.99937848906764</v>
+        <v>64.05935582821922</v>
       </c>
       <c r="BK19">
         <v>0</v>
       </c>
       <c r="BL19">
-        <v>69.55506073754981</v>
+        <v>45.49744327500606</v>
       </c>
       <c r="BM19">
-        <v>22.78410105607757</v>
+        <v>44.87169332413312</v>
       </c>
     </row>
     <row r="20" spans="1:65">
@@ -4317,193 +4317,193 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038591671351687</v>
+        <v>1.03776432433002</v>
       </c>
       <c r="D20">
-        <v>0.9849557358041153</v>
+        <v>0.9836675156138653</v>
       </c>
       <c r="E20">
-        <v>1.000498833524639</v>
+        <v>0.9992356166293588</v>
       </c>
       <c r="F20">
-        <v>0.983360328419941</v>
+        <v>0.9828127949522691</v>
       </c>
       <c r="G20">
-        <v>0.9989344039992172</v>
+        <v>0.9983975314430026</v>
       </c>
       <c r="H20">
-        <v>0.9626458449152054</v>
+        <v>0.9618848038027125</v>
       </c>
       <c r="I20">
-        <v>0.978634067822943</v>
+        <v>0.9778886774447006</v>
       </c>
       <c r="J20">
-        <v>0.9655385272198437</v>
+        <v>0.964551801104131</v>
       </c>
       <c r="K20">
-        <v>0.9814675504620356</v>
+        <v>0.9805009669359392</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9828620584486054</v>
+        <v>0.981894101562334</v>
       </c>
       <c r="N20">
-        <v>0.9828620584486054</v>
+        <v>0.981894101562334</v>
       </c>
       <c r="O20">
-        <v>1.003817698544884</v>
+        <v>1.003229792659916</v>
       </c>
       <c r="P20">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>1.021647659977905</v>
+        <v>1.019369907476634</v>
       </c>
       <c r="R20">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>13.07517184274461</v>
+        <v>13.53865630222152</v>
       </c>
       <c r="T20">
-        <v>9.131573096708584</v>
+        <v>9.591908582132563</v>
       </c>
       <c r="U20">
-        <v>-1.364212354886823</v>
+        <v>-1.15300825329722</v>
       </c>
       <c r="V20">
-        <v>2.072318859224853</v>
+        <v>2.292384238529074</v>
       </c>
       <c r="W20">
-        <v>0.9488419569748526</v>
+        <v>0.2706840595364128</v>
       </c>
       <c r="X20">
-        <v>4.396352521656272</v>
+        <v>3.721974709870964</v>
       </c>
       <c r="Y20">
-        <v>-5.472324825988787</v>
+        <v>-5.446780803328116</v>
       </c>
       <c r="Z20">
-        <v>-1.877387798292114</v>
+        <v>-1.846249720161202</v>
       </c>
       <c r="AA20">
-        <v>-4.264539921910425</v>
+        <v>-4.228050605620446</v>
       </c>
       <c r="AB20">
-        <v>-0.6907480092831607</v>
+        <v>-0.6470667159548417</v>
       </c>
       <c r="AC20">
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>-0.7035885197701665</v>
+        <v>-0.659907226441845</v>
       </c>
       <c r="AE20">
-        <v>-0.7035885197701665</v>
+        <v>-0.659907226441845</v>
       </c>
       <c r="AF20">
-        <v>9.468801782666542</v>
+        <v>7.031785089535437</v>
       </c>
       <c r="AG20">
-        <v>13.44149081830896</v>
+        <v>9.628643265298157</v>
       </c>
       <c r="AH20">
-        <v>6.054281868873185</v>
+        <v>6.770486729163179</v>
       </c>
       <c r="AI20">
-        <v>6.535094972094284</v>
+        <v>9.180606471733975</v>
       </c>
       <c r="AJ20">
-        <v>46.92210327083079</v>
+        <v>48.358851426248</v>
       </c>
       <c r="AK20">
-        <v>36.85175329421733</v>
+        <v>38.73918603318504</v>
       </c>
       <c r="AL20">
-        <v>2.026122775119906</v>
+        <v>2.024127378638794</v>
       </c>
       <c r="AM20">
-        <v>28.85317076550337</v>
+        <v>25.08391471287312</v>
       </c>
       <c r="AN20">
-        <v>10.42903878640297</v>
+        <v>10.52806796065516</v>
       </c>
       <c r="AO20">
-        <v>13.52601281831197</v>
+        <v>13.55879646503217</v>
       </c>
       <c r="AP20">
-        <v>45.17569386362641</v>
+        <v>29.55510937294364</v>
       </c>
       <c r="AQ20">
-        <v>23.90350912302257</v>
+        <v>26.36333522057357</v>
       </c>
       <c r="AR20">
-        <v>8.437715336967276</v>
+        <v>9.218552666143218</v>
       </c>
       <c r="AS20">
-        <v>18.84322593972306</v>
+        <v>17.70580369826976</v>
       </c>
       <c r="AT20">
-        <v>10.58588914789351</v>
+        <v>14.57676380632778</v>
       </c>
       <c r="AU20">
-        <v>6.416921336930386</v>
+        <v>6.822678425393292</v>
       </c>
       <c r="AV20">
-        <v>1.973320769718669</v>
+        <v>2.184971406888081</v>
       </c>
       <c r="AW20">
-        <v>0.0007553615361824903</v>
+        <v>0.0007538744559433879</v>
       </c>
       <c r="AX20">
-        <v>1.360780857766144</v>
+        <v>1.018576849967005</v>
       </c>
       <c r="AY20">
-        <v>0.2215372624124541</v>
+        <v>0.2251325248807632</v>
       </c>
       <c r="AZ20">
-        <v>0.2554395006052061</v>
+        <v>0.2549437293652588</v>
       </c>
       <c r="BA20">
-        <v>2.111180057249527</v>
+        <v>0.9017347420168988</v>
       </c>
       <c r="BB20">
-        <v>0.9122431495842704</v>
+        <v>1.122760304007912</v>
       </c>
       <c r="BC20">
-        <v>0.2708035680131715</v>
+        <v>0.3310036954511588</v>
       </c>
       <c r="BD20">
-        <v>1.116608748798555</v>
+        <v>0.9684426345843349</v>
       </c>
       <c r="BE20">
-        <v>0.340736778055053</v>
+        <v>0.8255889098108469</v>
       </c>
       <c r="BF20">
-        <v>72.76226735351192</v>
+        <v>72.92486704838609</v>
       </c>
       <c r="BG20">
-        <v>61.52744352078406</v>
+        <v>61.60802043700815</v>
       </c>
       <c r="BH20">
-        <v>61.62726586960725</v>
+        <v>61.66159894988267</v>
       </c>
       <c r="BI20">
-        <v>62.95337867530939</v>
+        <v>63.00318724817886</v>
       </c>
       <c r="BJ20">
-        <v>62.7647749900317</v>
+        <v>62.82898267961205</v>
       </c>
       <c r="BK20">
         <v>0</v>
       </c>
       <c r="BL20">
-        <v>69.55965983571117</v>
+        <v>45.50773167082396</v>
       </c>
       <c r="BM20">
-        <v>23.25009808795375</v>
+        <v>46.67574540903831</v>
       </c>
     </row>
     <row r="21" spans="1:65">
@@ -4514,193 +4514,193 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038753280243798</v>
+        <v>1.03791819668196</v>
       </c>
       <c r="D21">
-        <v>0.9854828192078774</v>
+        <v>0.9841947064967743</v>
       </c>
       <c r="E21">
-        <v>1.000955417587994</v>
+        <v>0.9996920377312519</v>
       </c>
       <c r="F21">
-        <v>0.9839082707967449</v>
+        <v>0.9833567050948258</v>
       </c>
       <c r="G21">
-        <v>0.9994111129822781</v>
+        <v>0.9988701707176284</v>
       </c>
       <c r="H21">
-        <v>0.9633960006015001</v>
+        <v>0.9626377073989711</v>
       </c>
       <c r="I21">
-        <v>0.9793043436755331</v>
+        <v>0.9785614628890855</v>
       </c>
       <c r="J21">
-        <v>0.9663096265649814</v>
+        <v>0.9653275008304375</v>
       </c>
       <c r="K21">
-        <v>0.9821590361686499</v>
+        <v>0.9811967251434927</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.983554526645512</v>
+        <v>0.9825908483307185</v>
       </c>
       <c r="N21">
-        <v>0.983554526645512</v>
+        <v>0.9825908483307185</v>
       </c>
       <c r="O21">
-        <v>1.004027778223175</v>
+        <v>1.003437878035799</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Q21">
-        <v>1.021941339585364</v>
+        <v>1.019620926317348</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S21">
-        <v>13.32190131890598</v>
+        <v>13.76650020865575</v>
       </c>
       <c r="T21">
-        <v>9.378917087139845</v>
+        <v>9.820338524634826</v>
       </c>
       <c r="U21">
-        <v>-1.066504125733639</v>
+        <v>-0.8692427503098081</v>
       </c>
       <c r="V21">
-        <v>2.30838877716874</v>
+        <v>2.514347975692058</v>
       </c>
       <c r="W21">
-        <v>1.312775465349804</v>
+        <v>0.6158875998632041</v>
       </c>
       <c r="X21">
-        <v>4.69830485087753</v>
+        <v>4.005154766141273</v>
       </c>
       <c r="Y21">
-        <v>-5.177621666812389</v>
+        <v>-5.16179895495095</v>
       </c>
       <c r="Z21">
-        <v>-1.648840736119766</v>
+        <v>-1.627550380981849</v>
       </c>
       <c r="AA21">
-        <v>-3.928349643758821</v>
+        <v>-3.904736069049734</v>
       </c>
       <c r="AB21">
-        <v>-0.4204605607981118</v>
+        <v>-0.3898253815221562</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>-0.4333010712851163</v>
+        <v>-0.4026658920091612</v>
       </c>
       <c r="AE21">
-        <v>-0.4333010712851163</v>
+        <v>-0.4026658920091612</v>
       </c>
       <c r="AF21">
-        <v>9.76966667287655</v>
+        <v>7.315087516744741</v>
       </c>
       <c r="AG21">
-        <v>13.74152314109563</v>
+        <v>9.911406806717153</v>
       </c>
       <c r="AH21">
-        <v>6.316174845473527</v>
+        <v>7.00827079249495</v>
       </c>
       <c r="AI21">
-        <v>6.792364365812636</v>
+        <v>9.395299849335638</v>
       </c>
       <c r="AJ21">
-        <v>46.96753202403337</v>
+        <v>48.37582432306596</v>
       </c>
       <c r="AK21">
-        <v>36.41685048562305</v>
+        <v>38.29270325251259</v>
       </c>
       <c r="AL21">
-        <v>2.027550264941749</v>
+        <v>2.025563688529804</v>
       </c>
       <c r="AM21">
-        <v>29.01931821616969</v>
+        <v>25.21109517979627</v>
       </c>
       <c r="AN21">
-        <v>10.79567100773468</v>
+        <v>10.86687229818991</v>
       </c>
       <c r="AO21">
-        <v>12.46869880391305</v>
+        <v>12.55495609360498</v>
       </c>
       <c r="AP21">
-        <v>45.17866464256514</v>
+        <v>29.56195671408748</v>
       </c>
       <c r="AQ21">
-        <v>24.02676992100781</v>
+        <v>26.4343161285421</v>
       </c>
       <c r="AR21">
-        <v>9.143788487191543</v>
+        <v>9.882690666172451</v>
       </c>
       <c r="AS21">
-        <v>18.75400328632728</v>
+        <v>17.64724942982487</v>
       </c>
       <c r="AT21">
-        <v>10.45347071852573</v>
+        <v>14.39482804815023</v>
       </c>
       <c r="AU21">
-        <v>6.430938549199084</v>
+        <v>6.828913938341429</v>
       </c>
       <c r="AV21">
-        <v>1.926707453820427</v>
+        <v>2.134640501071175</v>
       </c>
       <c r="AW21">
-        <v>0.000756426279927513</v>
+        <v>0.000754944726102874</v>
       </c>
       <c r="AX21">
-        <v>1.377420363064047</v>
+        <v>1.029864623728898</v>
       </c>
       <c r="AY21">
-        <v>0.2374801784017251</v>
+        <v>0.239994580547048</v>
       </c>
       <c r="AZ21">
-        <v>0.2100422455322075</v>
+        <v>0.2117193567050464</v>
       </c>
       <c r="BA21">
-        <v>2.11104401567016</v>
+        <v>0.9017443016052908</v>
       </c>
       <c r="BB21">
-        <v>0.9225894649522957</v>
+        <v>1.129568827570367</v>
       </c>
       <c r="BC21">
-        <v>0.336284825244384</v>
+        <v>0.3982521332600868</v>
       </c>
       <c r="BD21">
-        <v>1.105941996633504</v>
+        <v>0.9619263270655694</v>
       </c>
       <c r="BE21">
-        <v>0.3286901043985253</v>
+        <v>0.802622832835965</v>
       </c>
       <c r="BF21">
-        <v>72.73156771691437</v>
+        <v>72.89393950354174</v>
       </c>
       <c r="BG21">
-        <v>60.50514821331429</v>
+        <v>60.58433727009977</v>
       </c>
       <c r="BH21">
-        <v>60.60197460233064</v>
+        <v>60.63596630695424</v>
       </c>
       <c r="BI21">
-        <v>61.89228936036597</v>
+        <v>61.94104342635598</v>
       </c>
       <c r="BJ21">
-        <v>61.70567114166866</v>
+        <v>61.7684505896212</v>
       </c>
       <c r="BK21">
         <v>0</v>
       </c>
       <c r="BL21">
-        <v>69.5642341179135</v>
+        <v>45.51827492273686</v>
       </c>
       <c r="BM21">
-        <v>23.49492539679023</v>
+        <v>46.41618709158607</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -4711,193 +4711,193 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038982328477892</v>
+        <v>1.038183238041339</v>
       </c>
       <c r="D22">
-        <v>0.9862349225005693</v>
+        <v>0.9850970862720004</v>
       </c>
       <c r="E22">
-        <v>1.001607311538883</v>
+        <v>1.000490982063069</v>
       </c>
       <c r="F22">
-        <v>0.9846888323798164</v>
+        <v>0.9842176317559653</v>
       </c>
       <c r="G22">
-        <v>1.000090459980281</v>
+        <v>0.9996281933148051</v>
       </c>
       <c r="H22">
-        <v>0.9644606454851528</v>
+        <v>0.9638227312549559</v>
       </c>
       <c r="I22">
-        <v>0.9802557233152043</v>
+        <v>0.9796305563148081</v>
       </c>
       <c r="J22">
-        <v>0.9674105000582197</v>
+        <v>0.966586287635944</v>
       </c>
       <c r="K22">
-        <v>0.983146907905982</v>
+        <v>0.982339042813643</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9845438019901527</v>
+        <v>0.9837347890510791</v>
       </c>
       <c r="N22">
-        <v>0.9845438019901527</v>
+        <v>0.9837347890510791</v>
       </c>
       <c r="O22">
-        <v>1.004327157449233</v>
+        <v>1.003771607139949</v>
       </c>
       <c r="P22">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q22">
-        <v>1.022346320289534</v>
+        <v>1.01996079312857</v>
       </c>
       <c r="R22">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>13.66134038737176</v>
+        <v>13.90127246475546</v>
       </c>
       <c r="T22">
-        <v>9.71922677824012</v>
+        <v>9.956119805233854</v>
       </c>
       <c r="U22">
-        <v>-0.6482389563494937</v>
+        <v>-0.6023434541083249</v>
       </c>
       <c r="V22">
-        <v>2.637174862369223</v>
+        <v>2.690543440245462</v>
       </c>
       <c r="W22">
-        <v>1.821378898758039</v>
+        <v>0.9123659705045478</v>
       </c>
       <c r="X22">
-        <v>5.116953294973908</v>
+        <v>4.211046305768642</v>
       </c>
       <c r="Y22">
-        <v>-4.759797043921236</v>
+        <v>-4.850541969955944</v>
       </c>
       <c r="Z22">
-        <v>-1.326859496259134</v>
+        <v>-1.413134708822532</v>
       </c>
       <c r="AA22">
-        <v>-3.453577251676382</v>
+        <v>-3.571514305443141</v>
       </c>
       <c r="AB22">
-        <v>-0.04119650730963859</v>
+        <v>-0.1534083226614452</v>
       </c>
       <c r="AC22">
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>-0.05403701779663761</v>
+        <v>-0.1662488331484497</v>
       </c>
       <c r="AE22">
-        <v>-0.05403701779663761</v>
+        <v>-0.1662488331484497</v>
       </c>
       <c r="AF22">
-        <v>10.18676799809124</v>
+        <v>7.521175671706748</v>
       </c>
       <c r="AG22">
-        <v>14.15743859887686</v>
+        <v>10.11663115903706</v>
       </c>
       <c r="AH22">
-        <v>6.672261802303049</v>
+        <v>7.103867729768256</v>
       </c>
       <c r="AI22">
-        <v>7.101184747784945</v>
+        <v>9.25398290660908</v>
       </c>
       <c r="AJ22">
-        <v>47.00553390205507</v>
+        <v>48.0966949083511</v>
       </c>
       <c r="AK22">
-        <v>35.7765911492944</v>
+        <v>37.54618219121595</v>
       </c>
       <c r="AL22">
-        <v>2.029589608397035</v>
+        <v>2.02792186720484</v>
       </c>
       <c r="AM22">
-        <v>29.22641871350294</v>
+        <v>25.03483988876392</v>
       </c>
       <c r="AN22">
-        <v>11.30006428896596</v>
+        <v>11.06841524162859</v>
       </c>
       <c r="AO22">
-        <v>11.05564213104212</v>
+        <v>11.51245328714228</v>
       </c>
       <c r="AP22">
-        <v>45.1836132115133</v>
+        <v>29.57422732566888</v>
       </c>
       <c r="AQ22">
-        <v>24.15167001587059</v>
+        <v>25.97066004615093</v>
       </c>
       <c r="AR22">
-        <v>10.15351869834802</v>
+        <v>10.39274657155407</v>
       </c>
       <c r="AS22">
-        <v>18.65409796459513</v>
+        <v>17.84443648804479</v>
       </c>
       <c r="AT22">
-        <v>10.25055167795873</v>
+        <v>13.96560922652959</v>
       </c>
       <c r="AU22">
-        <v>6.443459107935723</v>
+        <v>6.751115583914043</v>
       </c>
       <c r="AV22">
-        <v>1.859076372189094</v>
+        <v>2.051671923336954</v>
       </c>
       <c r="AW22">
-        <v>0.0007579486971816787</v>
+        <v>0.0007567035755985827</v>
       </c>
       <c r="AX22">
-        <v>1.398388888961605</v>
+        <v>1.015924076598679</v>
       </c>
       <c r="AY22">
-        <v>0.2603500848628926</v>
+        <v>0.249229982550645</v>
       </c>
       <c r="AZ22">
-        <v>0.1551702021349577</v>
+        <v>0.1713188330396136</v>
       </c>
       <c r="BA22">
-        <v>2.110917033652697</v>
+        <v>0.9018387121646896</v>
       </c>
       <c r="BB22">
-        <v>0.9333308409175203</v>
+        <v>1.089921105952712</v>
       </c>
       <c r="BC22">
-        <v>0.4394572232375964</v>
+        <v>0.4564048595192105</v>
       </c>
       <c r="BD22">
-        <v>1.094203099427205</v>
+        <v>0.9859981514746892</v>
       </c>
       <c r="BE22">
-        <v>0.3104809452254429</v>
+        <v>0.748914175574086</v>
       </c>
       <c r="BF22">
-        <v>72.68865338282504</v>
+        <v>72.84140258783557</v>
       </c>
       <c r="BG22">
-        <v>59.02030230278454</v>
+        <v>59.0884736933176</v>
       </c>
       <c r="BH22">
-        <v>59.11297188866143</v>
+        <v>59.14127261030357</v>
       </c>
       <c r="BI22">
-        <v>60.35278218974569</v>
+        <v>60.39272718932109</v>
       </c>
       <c r="BJ22">
-        <v>60.16875283454537</v>
+        <v>60.22005899743371</v>
       </c>
       <c r="BK22">
         <v>0</v>
       </c>
       <c r="BL22">
-        <v>69.5718537191475</v>
+        <v>45.53716870154972</v>
       </c>
       <c r="BM22">
-        <v>23.5934747694369</v>
+        <v>42.8324559833835</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -4908,193 +4908,193 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039212009916371</v>
+        <v>1.038460115383329</v>
       </c>
       <c r="D23">
-        <v>0.9869909675247058</v>
+        <v>0.9860461387756918</v>
       </c>
       <c r="E23">
-        <v>1.002261749069026</v>
+        <v>1.001334491705071</v>
       </c>
       <c r="F23">
-        <v>0.9854803471534457</v>
+        <v>0.9851089906307042</v>
       </c>
       <c r="G23">
-        <v>1.000779242445082</v>
+        <v>1.000414813587875</v>
       </c>
       <c r="H23">
-        <v>0.9655317261961763</v>
+        <v>0.9650536469190154</v>
       </c>
       <c r="I23">
-        <v>0.9812122135016861</v>
+        <v>0.9807435217759399</v>
       </c>
       <c r="J23">
-        <v>0.9685231504341245</v>
+        <v>0.9679011859015729</v>
       </c>
       <c r="K23">
-        <v>0.9841451616263063</v>
+        <v>0.9835353179410247</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9855434740689191</v>
+        <v>0.984932763893564</v>
       </c>
       <c r="N23">
-        <v>0.9855434740689191</v>
+        <v>0.984932763893564</v>
       </c>
       <c r="O23">
-        <v>1.004630694177187</v>
+        <v>1.00411792691325</v>
       </c>
       <c r="P23">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>1.0227511524009</v>
+        <v>1.020292236674196</v>
       </c>
       <c r="R23">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>14.0125028284761</v>
+        <v>14.00252950778867</v>
       </c>
       <c r="T23">
-        <v>10.07126186252919</v>
+        <v>10.05843038150995</v>
       </c>
       <c r="U23">
-        <v>-0.2140765190084395</v>
+        <v>-0.3531008496045653</v>
       </c>
       <c r="V23">
-        <v>2.978076954593865</v>
+        <v>2.8450764303925</v>
       </c>
       <c r="W23">
-        <v>2.348771049687499</v>
+        <v>1.180400854829965</v>
       </c>
       <c r="X23">
-        <v>5.550563675611148</v>
+        <v>4.384569718722554</v>
       </c>
       <c r="Y23">
-        <v>-4.32564480432196</v>
+        <v>-4.546636538051278</v>
       </c>
       <c r="Z23">
-        <v>-0.9923869608025018</v>
+        <v>-1.210130022037321</v>
       </c>
       <c r="AA23">
-        <v>-2.9605925475532</v>
+        <v>-3.251539771750679</v>
       </c>
       <c r="AB23">
-        <v>0.3524443463565088</v>
+        <v>0.06568630582891044</v>
       </c>
       <c r="AC23">
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.3396038358695078</v>
+        <v>0.05284579534191045</v>
       </c>
       <c r="AE23">
-        <v>0.3396038358695078</v>
+        <v>0.05284579534191045</v>
       </c>
       <c r="AF23">
-        <v>10.61881284364038</v>
+        <v>7.694903579514635</v>
       </c>
       <c r="AG23">
-        <v>14.58828183206577</v>
+        <v>10.28946328304977</v>
       </c>
       <c r="AH23">
-        <v>7.039661967290597</v>
+        <v>7.153245558273674</v>
       </c>
       <c r="AI23">
-        <v>7.410898595029049</v>
+        <v>9.014216289736392</v>
       </c>
       <c r="AJ23">
-        <v>47.0417304705283</v>
+        <v>47.74443844010637</v>
       </c>
       <c r="AK23">
-        <v>35.10776251410727</v>
+        <v>36.74778381714279</v>
       </c>
       <c r="AL23">
-        <v>2.031650384219127</v>
+        <v>2.030391434619141</v>
       </c>
       <c r="AM23">
-        <v>29.43804490198897</v>
+        <v>24.77770392690002</v>
       </c>
       <c r="AN23">
-        <v>11.82182242302846</v>
+        <v>11.22009540384262</v>
       </c>
       <c r="AO23">
-        <v>9.732376588665792</v>
+        <v>10.53616547138977</v>
       </c>
       <c r="AP23">
-        <v>45.18948813736321</v>
+        <v>29.58863761892737</v>
       </c>
       <c r="AQ23">
-        <v>24.27294702495025</v>
+        <v>25.37054605208858</v>
       </c>
       <c r="AR23">
-        <v>11.22721813680387</v>
+        <v>10.84238465503955</v>
       </c>
       <c r="AS23">
-        <v>18.55640937876302</v>
+        <v>18.11054305007668</v>
       </c>
       <c r="AT23">
-        <v>10.03985000583764</v>
+        <v>13.48606753863072</v>
       </c>
       <c r="AU23">
-        <v>6.455491414201163</v>
+        <v>6.653117667193555</v>
       </c>
       <c r="AV23">
-        <v>1.789701808644253</v>
+        <v>1.96472231646257</v>
       </c>
       <c r="AW23">
-        <v>0.0007594886689425503</v>
+        <v>0.0007585476982406662</v>
       </c>
       <c r="AX23">
-        <v>1.419948721966307</v>
+        <v>0.9954047491341527</v>
       </c>
       <c r="AY23">
-        <v>0.2851348816638506</v>
+        <v>0.2563719636128781</v>
       </c>
       <c r="AZ23">
-        <v>0.1097157413988477</v>
+        <v>0.1369962168758114</v>
       </c>
       <c r="BA23">
-        <v>2.11086854464213</v>
+        <v>0.9020396833469277</v>
       </c>
       <c r="BB23">
-        <v>0.9438348275800479</v>
+        <v>1.039456094462679</v>
       </c>
       <c r="BC23">
-        <v>0.5611313184366082</v>
+        <v>0.5110700481855019</v>
       </c>
       <c r="BD23">
-        <v>1.082804725745916</v>
+        <v>1.018652696542404</v>
       </c>
       <c r="BE23">
-        <v>0.2919363709785898</v>
+        <v>0.6907654999470907</v>
       </c>
       <c r="BF23">
-        <v>72.64632361660949</v>
+        <v>72.78751470894306</v>
       </c>
       <c r="BG23">
-        <v>57.47134579087533</v>
+        <v>57.52641479587667</v>
       </c>
       <c r="BH23">
-        <v>57.55944230742812</v>
+        <v>57.58114048960847</v>
       </c>
       <c r="BI23">
-        <v>58.74866423142057</v>
+        <v>58.7777678144385</v>
       </c>
       <c r="BJ23">
-        <v>58.56721046023269</v>
+        <v>58.60484521903595</v>
       </c>
       <c r="BK23">
         <v>0</v>
       </c>
       <c r="BL23">
-        <v>69.58089968632004</v>
+        <v>45.55935707346976</v>
       </c>
       <c r="BM23">
-        <v>23.67596369263007</v>
+        <v>38.57515210980039</v>
       </c>
     </row>
     <row r="24" spans="1:65">
@@ -5102,196 +5102,196 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.039435519817142</v>
+        <v>1.038722065608747</v>
       </c>
       <c r="D24">
-        <v>0.9877266951445687</v>
+        <v>0.9869504927262067</v>
       </c>
       <c r="E24">
-        <v>1.002896909978705</v>
+        <v>1.002134910145161</v>
       </c>
       <c r="F24">
-        <v>0.9862624874785089</v>
+        <v>0.9859738213121562</v>
       </c>
       <c r="G24">
-        <v>1.00145951677528</v>
+        <v>1.001176148645417</v>
       </c>
       <c r="H24">
-        <v>0.9665787799668251</v>
+        <v>0.9662485507585531</v>
       </c>
       <c r="I24">
-        <v>0.9821460729815372</v>
+        <v>0.9818222153754073</v>
       </c>
       <c r="J24">
-        <v>0.969615244235537</v>
+        <v>0.9691722338144634</v>
       </c>
       <c r="K24">
-        <v>0.9851242026744295</v>
+        <v>0.9846896748176797</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9865239061773585</v>
+        <v>0.9860887609262117</v>
       </c>
       <c r="N24">
-        <v>0.9865239061773585</v>
+        <v>0.9860887609262117</v>
       </c>
       <c r="O24">
-        <v>1.004930480915214</v>
+        <v>1.004453114715218</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q24">
-        <v>1.023149809845614</v>
+        <v>1.020617457000218</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24">
-        <v>14.37726286929122</v>
+        <v>14.15693104347435</v>
       </c>
       <c r="T24">
-        <v>10.43687072749073</v>
+        <v>10.21382813367797</v>
       </c>
       <c r="U24">
-        <v>0.2338965800281855</v>
+        <v>-0.06082334927279697</v>
       </c>
       <c r="V24">
-        <v>3.330927397163486</v>
+        <v>3.041004620786053</v>
       </c>
       <c r="W24">
-        <v>2.893698467231358</v>
+        <v>1.507217335109717</v>
       </c>
       <c r="X24">
-        <v>5.999787769067221</v>
+        <v>4.615097160955636</v>
       </c>
       <c r="Y24">
-        <v>-3.879208954223369</v>
+        <v>-4.209835064746894</v>
       </c>
       <c r="Z24">
-        <v>-0.647411903934804</v>
+        <v>-0.9758648099529498</v>
       </c>
       <c r="AA24">
-        <v>-2.453089731361863</v>
+        <v>-2.889671216044416</v>
       </c>
       <c r="AB24">
-        <v>0.7588262193476936</v>
+        <v>0.3251339538085891</v>
       </c>
       <c r="AC24">
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0.7459857088606893</v>
+        <v>0.3122934433215824</v>
       </c>
       <c r="AE24">
-        <v>0.7459857088606893</v>
+        <v>0.3122934433215824</v>
       </c>
       <c r="AF24">
-        <v>11.06649376899591</v>
+        <v>7.925629389489033</v>
       </c>
       <c r="AG24">
-        <v>15.03477670437141</v>
+        <v>10.51932269180782</v>
       </c>
       <c r="AH24">
-        <v>7.422321634710184</v>
+        <v>7.268231534693171</v>
       </c>
       <c r="AI24">
-        <v>7.744879905353693</v>
+        <v>8.885230642875566</v>
       </c>
       <c r="AJ24">
-        <v>47.08928070131506</v>
+        <v>47.46392441913677</v>
       </c>
       <c r="AK24">
-        <v>34.42837390549701</v>
+        <v>35.95820213313429</v>
       </c>
       <c r="AL24">
-        <v>2.033671497769489</v>
+        <v>2.032774466801589</v>
       </c>
       <c r="AM24">
-        <v>29.66674154492208</v>
+        <v>24.60887247060026</v>
       </c>
       <c r="AN24">
-        <v>12.36369438136236</v>
+        <v>11.45027390515343</v>
       </c>
       <c r="AO24">
-        <v>8.599040584803411</v>
+        <v>9.51977763328644</v>
       </c>
       <c r="AP24">
-        <v>45.19613776391306</v>
+        <v>29.60420871883954</v>
       </c>
       <c r="AQ24">
-        <v>24.41378593445824</v>
+        <v>24.90213964631638</v>
       </c>
       <c r="AR24">
-        <v>12.36056802516243</v>
+        <v>11.43983492248652</v>
       </c>
       <c r="AS24">
-        <v>18.44979062678852</v>
+        <v>18.31258542280041</v>
       </c>
       <c r="AT24">
-        <v>9.832056843902819</v>
+        <v>13.04068191682615</v>
       </c>
       <c r="AU24">
-        <v>6.470657253711238</v>
+        <v>6.575993930237985</v>
       </c>
       <c r="AV24">
-        <v>1.720569727392814</v>
+        <v>1.880591403273115</v>
       </c>
       <c r="AW24">
-        <v>0.0007610005199537157</v>
+        <v>0.0007603293294515448</v>
       </c>
       <c r="AX24">
-        <v>1.443327922685896</v>
+        <v>0.9823551178088081</v>
       </c>
       <c r="AY24">
-        <v>0.312081903603044</v>
+        <v>0.267250798574409</v>
       </c>
       <c r="AZ24">
-        <v>0.07528000636227894</v>
+        <v>0.1042765812644397</v>
       </c>
       <c r="BA24">
-        <v>2.110899972814479</v>
+        <v>0.9023340962320248</v>
       </c>
       <c r="BB24">
-        <v>0.955959555170395</v>
+        <v>1.001086348954473</v>
       </c>
       <c r="BC24">
-        <v>0.7027938470983344</v>
+        <v>0.5848555131775584</v>
       </c>
       <c r="BD24">
-        <v>1.070355601561317</v>
+        <v>1.043866725688048</v>
       </c>
       <c r="BE24">
-        <v>0.2740230058684716</v>
+        <v>0.6386761679114841</v>
       </c>
       <c r="BF24">
-        <v>72.60580846714146</v>
+        <v>72.73747022462777</v>
       </c>
       <c r="BG24">
-        <v>55.89006762465392</v>
+        <v>55.93402322928898</v>
       </c>
       <c r="BH24">
-        <v>55.97304215375913</v>
+        <v>55.98942952951729</v>
       </c>
       <c r="BI24">
-        <v>57.11289439666844</v>
+        <v>57.13241354201028</v>
       </c>
       <c r="BJ24">
-        <v>56.93403864522558</v>
+        <v>56.96006329961995</v>
       </c>
       <c r="BK24">
         <v>0</v>
       </c>
       <c r="BL24">
-        <v>69.59113850550092</v>
+        <v>45.58333280733293</v>
       </c>
       <c r="BM24">
-        <v>23.83990091677385</v>
+        <v>35.18417098899052</v>
       </c>
     </row>
     <row r="25" spans="1:65">
@@ -5302,193 +5302,193 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039858291044194</v>
+        <v>1.039177542173522</v>
       </c>
       <c r="D25">
-        <v>0.9891161671719501</v>
+        <v>0.9885226109668721</v>
       </c>
       <c r="E25">
-        <v>1.00408943200409</v>
+        <v>1.003506390384512</v>
       </c>
       <c r="F25">
-        <v>0.9877868618735033</v>
+        <v>0.9875829731112219</v>
       </c>
       <c r="G25">
-        <v>1.002783696038415</v>
+        <v>1.002583429147648</v>
       </c>
       <c r="H25">
-        <v>0.9685772246306327</v>
+        <v>0.9684346984893014</v>
       </c>
       <c r="I25">
-        <v>0.9839234580551769</v>
+        <v>0.9837835874364171</v>
       </c>
       <c r="J25">
-        <v>0.971713991016518</v>
+        <v>0.9714754756010889</v>
       </c>
       <c r="K25">
-        <v>0.9870020210618331</v>
+        <v>0.986767915264041</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9884043926435357</v>
+        <v>0.9881699542189497</v>
       </c>
       <c r="N25">
-        <v>0.9884043926435357</v>
+        <v>0.9881699542189497</v>
       </c>
       <c r="O25">
-        <v>1.005514025308946</v>
+        <v>1.005072688966645</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q25">
-        <v>1.023927421463007</v>
+        <v>1.021284758699568</v>
       </c>
       <c r="R25">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S25">
-        <v>15.15943492482431</v>
+        <v>14.74362380351334</v>
       </c>
       <c r="T25">
-        <v>11.2206473422051</v>
+        <v>10.80225190675463</v>
       </c>
       <c r="U25">
-        <v>1.179965555455314</v>
+        <v>0.7408006556524989</v>
       </c>
       <c r="V25">
-        <v>4.081298997208339</v>
+        <v>3.645565835176873</v>
       </c>
       <c r="W25">
-        <v>4.048417458657764</v>
+        <v>2.461018562273043</v>
       </c>
       <c r="X25">
-        <v>6.957444890454525</v>
+        <v>5.371228787228361</v>
       </c>
       <c r="Y25">
-        <v>-2.943462965588422</v>
+        <v>-3.375440208511421</v>
       </c>
       <c r="Z25">
-        <v>0.0802304972536019</v>
+        <v>-0.3508709696242483</v>
       </c>
       <c r="AA25">
-        <v>-1.386470088597282</v>
+        <v>-1.957772405338823</v>
       </c>
       <c r="AB25">
-        <v>1.618044250643513</v>
+        <v>1.048193911660534</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>1.605203740156508</v>
+        <v>1.035353401173529</v>
       </c>
       <c r="AE25">
-        <v>1.605203740156508</v>
+        <v>1.035353401173529</v>
       </c>
       <c r="AF25">
-        <v>12.02115566203578</v>
+        <v>8.682128835723177</v>
       </c>
       <c r="AG25">
-        <v>15.98713194056337</v>
+        <v>11.27422217100965</v>
       </c>
       <c r="AH25">
-        <v>8.248457513815753</v>
+        <v>7.845719624488566</v>
       </c>
       <c r="AI25">
-        <v>8.525258602652016</v>
+        <v>9.233436578046225</v>
       </c>
       <c r="AJ25">
-        <v>47.23753563028858</v>
+        <v>47.3040492545735</v>
       </c>
       <c r="AK25">
-        <v>33.04491302770462</v>
+        <v>34.46613367606279</v>
       </c>
       <c r="AL25">
-        <v>2.037548030009921</v>
+        <v>2.037064746494074</v>
       </c>
       <c r="AM25">
-        <v>30.1981279367748</v>
+        <v>24.75976174154054</v>
       </c>
       <c r="AN25">
-        <v>13.5252726115224</v>
+        <v>12.32227979871171</v>
       </c>
       <c r="AO25">
-        <v>7.447565682184377</v>
+        <v>7.615806886085205</v>
       </c>
       <c r="AP25">
-        <v>45.21149470768889</v>
+        <v>29.63718767751894</v>
       </c>
       <c r="AQ25">
-        <v>24.78917090095054</v>
+        <v>24.7071440196482</v>
       </c>
       <c r="AR25">
-        <v>14.82144425297476</v>
+        <v>13.38243711563029</v>
       </c>
       <c r="AS25">
-        <v>18.192350403831</v>
+        <v>18.34778708550532</v>
       </c>
       <c r="AT25">
-        <v>9.434267150703766</v>
+        <v>12.34967476672895</v>
       </c>
       <c r="AU25">
-        <v>6.515736587369815</v>
+        <v>6.53496604951772</v>
       </c>
       <c r="AV25">
-        <v>1.583965931752033</v>
+        <v>1.726710841856374</v>
       </c>
       <c r="AW25">
-        <v>0.0007639044842369404</v>
+        <v>0.0007635421480198246</v>
       </c>
       <c r="AX25">
-        <v>1.49797747697589</v>
+        <v>0.9965122398441224</v>
       </c>
       <c r="AY25">
-        <v>0.3739824747567013</v>
+        <v>0.3099892628869867</v>
       </c>
       <c r="AZ25">
-        <v>0.04413218841493083</v>
+        <v>0.05082374632050524</v>
       </c>
       <c r="BA25">
-        <v>2.111187198911608</v>
+        <v>0.9031370033139581</v>
       </c>
       <c r="BB25">
-        <v>0.9880528404967919</v>
+        <v>0.9866054246228515</v>
       </c>
       <c r="BC25">
-        <v>1.057058008486308</v>
+        <v>0.8427634629000664</v>
       </c>
       <c r="BD25">
-        <v>1.040262042293747</v>
+        <v>1.049301918785119</v>
       </c>
       <c r="BE25">
-        <v>0.2407759707440889</v>
+        <v>0.5617628660974674</v>
       </c>
       <c r="BF25">
-        <v>72.53100436814971</v>
+        <v>72.65263098684052</v>
       </c>
       <c r="BG25">
-        <v>52.63370799053265</v>
+        <v>52.66531178353395</v>
       </c>
       <c r="BH25">
-        <v>52.70453933037859</v>
+        <v>52.71542030299897</v>
       </c>
       <c r="BI25">
-        <v>53.74982003267391</v>
+        <v>53.75773048286585</v>
       </c>
       <c r="BJ25">
-        <v>53.57631154119954</v>
+        <v>53.58946552863966</v>
       </c>
       <c r="BK25">
         <v>0</v>
       </c>
       <c r="BL25">
-        <v>69.61478449062699</v>
+        <v>45.63411244016836</v>
       </c>
       <c r="BM25">
-        <v>24.42169809947324</v>
+        <v>32.43635705748071</v>
       </c>
     </row>
   </sheetData>
